--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/Median_Pulse_Widths.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/Median_Pulse_Widths.xlsx
@@ -1200,7 +1200,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="D2">
         <v>600</v>
@@ -1226,7 +1226,7 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>53.5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>600</v>
@@ -1252,7 +1252,7 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>600</v>
@@ -1278,7 +1278,7 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>600</v>
@@ -1304,7 +1304,7 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>21.5</v>
+        <v>14.5</v>
       </c>
       <c r="D6">
         <v>850</v>
@@ -1330,7 +1330,7 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>49.5</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>850</v>
@@ -1356,7 +1356,7 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>850</v>
@@ -1382,7 +1382,7 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>103.5</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>850</v>
@@ -1408,7 +1408,7 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>23.5</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>900</v>
@@ -1434,7 +1434,7 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>60.5</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>900</v>
@@ -1460,7 +1460,7 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>69.5</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>900</v>
@@ -1486,7 +1486,7 @@
         <v>0.9</v>
       </c>
       <c r="C13">
-        <v>115</v>
+        <v>26.5</v>
       </c>
       <c r="D13">
         <v>900</v>
@@ -1512,7 +1512,7 @@
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>700</v>
@@ -1538,7 +1538,7 @@
         <v>0.7</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>700</v>
@@ -1564,7 +1564,7 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>700</v>
@@ -1590,7 +1590,7 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>700</v>
@@ -1616,7 +1616,7 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>28.5</v>
+        <v>11.5</v>
       </c>
       <c r="D18">
         <v>900</v>
@@ -1642,7 +1642,7 @@
         <v>0.7</v>
       </c>
       <c r="C19">
-        <v>60.5</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>900</v>
@@ -1668,7 +1668,7 @@
         <v>0.8</v>
       </c>
       <c r="C20">
-        <v>89.5</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>900</v>
@@ -1694,7 +1694,7 @@
         <v>0.9</v>
       </c>
       <c r="C21">
-        <v>113.5</v>
+        <v>25.5</v>
       </c>
       <c r="D21">
         <v>900</v>
@@ -1720,7 +1720,7 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>25.5</v>
+        <v>13.5</v>
       </c>
       <c r="D22">
         <v>800</v>
@@ -1746,7 +1746,7 @@
         <v>0.7</v>
       </c>
       <c r="C23">
-        <v>37.5</v>
+        <v>21.5</v>
       </c>
       <c r="D23">
         <v>800</v>
@@ -1772,7 +1772,7 @@
         <v>0.8</v>
       </c>
       <c r="C24">
-        <v>72.5</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>800</v>
@@ -1798,7 +1798,7 @@
         <v>0.9</v>
       </c>
       <c r="C25">
-        <v>112</v>
+        <v>29.5</v>
       </c>
       <c r="D25">
         <v>800</v>
@@ -1824,7 +1824,7 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>24.5</v>
+        <v>12.5</v>
       </c>
       <c r="D26">
         <v>850</v>
@@ -1850,7 +1850,7 @@
         <v>0.7</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>850</v>
@@ -1876,7 +1876,7 @@
         <v>0.8</v>
       </c>
       <c r="C28">
-        <v>91.5</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>850</v>
@@ -1902,7 +1902,7 @@
         <v>0.9</v>
       </c>
       <c r="C29">
-        <v>123.5</v>
+        <v>25.5</v>
       </c>
       <c r="D29">
         <v>850</v>
@@ -1928,7 +1928,7 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>20.5</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>700</v>
@@ -1954,7 +1954,7 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>700</v>
@@ -1980,7 +1980,7 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>52.5</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <v>700</v>
@@ -2006,7 +2006,7 @@
         <v>0.9</v>
       </c>
       <c r="C33">
-        <v>70.5</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>700</v>
@@ -2032,7 +2032,7 @@
         <v>0.5</v>
       </c>
       <c r="C34">
-        <v>21.5</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>850</v>
@@ -2058,7 +2058,7 @@
         <v>0.7</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>20.5</v>
       </c>
       <c r="D35">
         <v>850</v>
@@ -2084,7 +2084,7 @@
         <v>0.8</v>
       </c>
       <c r="C36">
-        <v>53</v>
+        <v>23.5</v>
       </c>
       <c r="D36">
         <v>850</v>
@@ -2110,7 +2110,7 @@
         <v>0.9</v>
       </c>
       <c r="C37">
-        <v>93</v>
+        <v>25.5</v>
       </c>
       <c r="D37">
         <v>850</v>
@@ -2136,7 +2136,7 @@
         <v>0.5</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="D38">
         <v>700</v>
@@ -2162,7 +2162,7 @@
         <v>0.7</v>
       </c>
       <c r="C39">
-        <v>43.5</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>700</v>
@@ -2188,7 +2188,7 @@
         <v>0.8</v>
       </c>
       <c r="C40">
-        <v>65.5</v>
+        <v>23</v>
       </c>
       <c r="D40">
         <v>700</v>
@@ -2214,7 +2214,7 @@
         <v>0.9</v>
       </c>
       <c r="C41">
-        <v>104</v>
+        <v>25.5</v>
       </c>
       <c r="D41">
         <v>700</v>
@@ -2240,7 +2240,7 @@
         <v>0.5</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>900</v>
@@ -2266,7 +2266,7 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>43.5</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <v>900</v>
@@ -2292,7 +2292,7 @@
         <v>0.8</v>
       </c>
       <c r="C44">
-        <v>75.5</v>
+        <v>25</v>
       </c>
       <c r="D44">
         <v>900</v>
@@ -2318,7 +2318,7 @@
         <v>0.9</v>
       </c>
       <c r="C45">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="D45">
         <v>900</v>
@@ -2344,7 +2344,7 @@
         <v>0.5</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>900</v>
@@ -2370,7 +2370,7 @@
         <v>0.7</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="D47">
         <v>900</v>
@@ -2396,7 +2396,7 @@
         <v>0.8</v>
       </c>
       <c r="C48">
-        <v>59</v>
+        <v>20.5</v>
       </c>
       <c r="D48">
         <v>900</v>
@@ -2422,7 +2422,7 @@
         <v>0.9</v>
       </c>
       <c r="C49">
-        <v>122</v>
+        <v>23.5</v>
       </c>
       <c r="D49">
         <v>900</v>
@@ -2448,7 +2448,7 @@
         <v>0.5</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>700</v>
@@ -2474,7 +2474,7 @@
         <v>0.7</v>
       </c>
       <c r="C51">
-        <v>58</v>
+        <v>16.5</v>
       </c>
       <c r="D51">
         <v>700</v>
@@ -2500,7 +2500,7 @@
         <v>0.8</v>
       </c>
       <c r="C52">
-        <v>82.5</v>
+        <v>21</v>
       </c>
       <c r="D52">
         <v>700</v>
@@ -2526,7 +2526,7 @@
         <v>0.9</v>
       </c>
       <c r="C53">
-        <v>120</v>
+        <v>26.5</v>
       </c>
       <c r="D53">
         <v>700</v>
@@ -2552,7 +2552,7 @@
         <v>0.5</v>
       </c>
       <c r="C54">
-        <v>23.5</v>
+        <v>8.5</v>
       </c>
       <c r="D54">
         <v>850</v>
@@ -2578,7 +2578,7 @@
         <v>0.7</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>850</v>
@@ -2604,7 +2604,7 @@
         <v>0.8</v>
       </c>
       <c r="C56">
-        <v>59.5</v>
+        <v>21</v>
       </c>
       <c r="D56">
         <v>850</v>
@@ -2630,7 +2630,7 @@
         <v>0.9</v>
       </c>
       <c r="C57">
-        <v>104.5</v>
+        <v>23.5</v>
       </c>
       <c r="D57">
         <v>850</v>
@@ -2656,7 +2656,7 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>21.5</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>600</v>
@@ -2682,7 +2682,7 @@
         <v>0.7</v>
       </c>
       <c r="C59">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>600</v>
@@ -2708,7 +2708,7 @@
         <v>0.8</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D60">
         <v>600</v>
@@ -2734,7 +2734,7 @@
         <v>0.9</v>
       </c>
       <c r="C61">
-        <v>69.5</v>
+        <v>29</v>
       </c>
       <c r="D61">
         <v>600</v>
@@ -2760,7 +2760,7 @@
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D62">
         <v>600</v>
@@ -2786,7 +2786,7 @@
         <v>0.7</v>
       </c>
       <c r="C63">
-        <v>47</v>
+        <v>13.5</v>
       </c>
       <c r="D63">
         <v>600</v>
@@ -2812,7 +2812,7 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>600</v>
@@ -2838,7 +2838,7 @@
         <v>0.9</v>
       </c>
       <c r="C65">
-        <v>106</v>
+        <v>24.5</v>
       </c>
       <c r="D65">
         <v>600</v>
@@ -2864,7 +2864,7 @@
         <v>0.5</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>9.5</v>
       </c>
       <c r="D66">
         <v>700</v>
@@ -2890,7 +2890,7 @@
         <v>0.7</v>
       </c>
       <c r="C67">
-        <v>35.5</v>
+        <v>17</v>
       </c>
       <c r="D67">
         <v>700</v>
@@ -2916,7 +2916,7 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>58</v>
+        <v>20.5</v>
       </c>
       <c r="D68">
         <v>700</v>
@@ -2942,7 +2942,7 @@
         <v>0.9</v>
       </c>
       <c r="C69">
-        <v>65.5</v>
+        <v>24</v>
       </c>
       <c r="D69">
         <v>700</v>
@@ -2968,7 +2968,7 @@
         <v>0.5</v>
       </c>
       <c r="C70">
-        <v>35.5</v>
+        <v>14.5</v>
       </c>
       <c r="D70">
         <v>900</v>
@@ -2994,7 +2994,7 @@
         <v>0.7</v>
       </c>
       <c r="C71">
-        <v>59.5</v>
+        <v>19</v>
       </c>
       <c r="D71">
         <v>900</v>
@@ -3020,7 +3020,7 @@
         <v>0.8</v>
       </c>
       <c r="C72">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D72">
         <v>900</v>
@@ -3046,7 +3046,7 @@
         <v>0.9</v>
       </c>
       <c r="C73">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D73">
         <v>900</v>
@@ -3072,7 +3072,7 @@
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="D74">
         <v>850</v>
@@ -3098,7 +3098,7 @@
         <v>0.7</v>
       </c>
       <c r="C75">
-        <v>56.5</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>850</v>
@@ -3124,7 +3124,7 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>71.5</v>
+        <v>23</v>
       </c>
       <c r="D76">
         <v>850</v>
@@ -3150,7 +3150,7 @@
         <v>0.9</v>
       </c>
       <c r="C77">
-        <v>107.5</v>
+        <v>26.5</v>
       </c>
       <c r="D77">
         <v>850</v>
@@ -3176,7 +3176,7 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="D78">
         <v>800</v>
@@ -3202,7 +3202,7 @@
         <v>0.7</v>
       </c>
       <c r="C79">
-        <v>39.5</v>
+        <v>24</v>
       </c>
       <c r="D79">
         <v>800</v>
@@ -3228,7 +3228,7 @@
         <v>0.8</v>
       </c>
       <c r="C80">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D80">
         <v>800</v>
@@ -3254,7 +3254,7 @@
         <v>0.9</v>
       </c>
       <c r="C81">
-        <v>98.5</v>
+        <v>28</v>
       </c>
       <c r="D81">
         <v>800</v>
@@ -3280,7 +3280,7 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>20.5</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>800</v>
@@ -3306,7 +3306,7 @@
         <v>0.7</v>
       </c>
       <c r="C83">
-        <v>34.5</v>
+        <v>20.5</v>
       </c>
       <c r="D83">
         <v>800</v>
@@ -3332,7 +3332,7 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D84">
         <v>800</v>
@@ -3358,7 +3358,7 @@
         <v>0.9</v>
       </c>
       <c r="C85">
-        <v>97</v>
+        <v>26.5</v>
       </c>
       <c r="D85">
         <v>800</v>
@@ -3384,7 +3384,7 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>22.5</v>
+        <v>14</v>
       </c>
       <c r="D86">
         <v>900</v>
@@ -3410,7 +3410,7 @@
         <v>0.7</v>
       </c>
       <c r="C87">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D87">
         <v>900</v>
@@ -3436,7 +3436,7 @@
         <v>0.8</v>
       </c>
       <c r="C88">
-        <v>69</v>
+        <v>23.5</v>
       </c>
       <c r="D88">
         <v>900</v>
@@ -3462,7 +3462,7 @@
         <v>0.9</v>
       </c>
       <c r="C89">
-        <v>124</v>
+        <v>26.5</v>
       </c>
       <c r="D89">
         <v>900</v>
@@ -3488,7 +3488,7 @@
         <v>0.5</v>
       </c>
       <c r="C90">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>850</v>
@@ -3514,7 +3514,7 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>54</v>
+        <v>21.5</v>
       </c>
       <c r="D91">
         <v>850</v>
@@ -3540,7 +3540,7 @@
         <v>0.8</v>
       </c>
       <c r="C92">
-        <v>83.5</v>
+        <v>22.5</v>
       </c>
       <c r="D92">
         <v>850</v>
@@ -3566,7 +3566,7 @@
         <v>0.9</v>
       </c>
       <c r="C93">
-        <v>126.5</v>
+        <v>23.5</v>
       </c>
       <c r="D93">
         <v>850</v>
@@ -3592,7 +3592,7 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D94">
         <v>850</v>
@@ -3618,7 +3618,7 @@
         <v>0.7</v>
       </c>
       <c r="C95">
-        <v>33.5</v>
+        <v>19.5</v>
       </c>
       <c r="D95">
         <v>850</v>
@@ -3644,7 +3644,7 @@
         <v>0.8</v>
       </c>
       <c r="C96">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D96">
         <v>850</v>
@@ -3670,7 +3670,7 @@
         <v>0.9</v>
       </c>
       <c r="C97">
-        <v>93.5</v>
+        <v>28</v>
       </c>
       <c r="D97">
         <v>850</v>
@@ -3696,7 +3696,7 @@
         <v>0.5</v>
       </c>
       <c r="C98">
-        <v>24.5</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>900</v>
@@ -3722,7 +3722,7 @@
         <v>0.7</v>
       </c>
       <c r="C99">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D99">
         <v>900</v>
@@ -3748,7 +3748,7 @@
         <v>0.8</v>
       </c>
       <c r="C100">
-        <v>84.5</v>
+        <v>22.5</v>
       </c>
       <c r="D100">
         <v>900</v>
@@ -3774,7 +3774,7 @@
         <v>0.9</v>
       </c>
       <c r="C101">
-        <v>120.5</v>
+        <v>24.5</v>
       </c>
       <c r="D101">
         <v>900</v>
@@ -3800,7 +3800,7 @@
         <v>0.5</v>
       </c>
       <c r="C102">
-        <v>23.5</v>
+        <v>13.5</v>
       </c>
       <c r="D102">
         <v>700</v>
@@ -3826,7 +3826,7 @@
         <v>0.7</v>
       </c>
       <c r="C103">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D103">
         <v>700</v>
@@ -3852,7 +3852,7 @@
         <v>0.8</v>
       </c>
       <c r="C104">
-        <v>73.5</v>
+        <v>24</v>
       </c>
       <c r="D104">
         <v>700</v>
@@ -3878,7 +3878,7 @@
         <v>0.9</v>
       </c>
       <c r="C105">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D105">
         <v>700</v>
@@ -3904,7 +3904,7 @@
         <v>0.5</v>
       </c>
       <c r="C106">
-        <v>21.5</v>
+        <v>11.5</v>
       </c>
       <c r="D106">
         <v>700</v>
@@ -3930,7 +3930,7 @@
         <v>0.7</v>
       </c>
       <c r="C107">
-        <v>48.5</v>
+        <v>17.5</v>
       </c>
       <c r="D107">
         <v>700</v>
@@ -3956,7 +3956,7 @@
         <v>0.8</v>
       </c>
       <c r="C108">
-        <v>66.5</v>
+        <v>20</v>
       </c>
       <c r="D108">
         <v>700</v>
@@ -3982,7 +3982,7 @@
         <v>0.9</v>
       </c>
       <c r="C109">
-        <v>115.5</v>
+        <v>26</v>
       </c>
       <c r="D109">
         <v>700</v>
@@ -4008,7 +4008,7 @@
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D110">
         <v>600</v>
@@ -4034,7 +4034,7 @@
         <v>0.7</v>
       </c>
       <c r="C111">
-        <v>50.5</v>
+        <v>19.5</v>
       </c>
       <c r="D111">
         <v>600</v>
@@ -4060,7 +4060,7 @@
         <v>0.8</v>
       </c>
       <c r="C112">
-        <v>65.5</v>
+        <v>22.5</v>
       </c>
       <c r="D112">
         <v>600</v>
@@ -4086,7 +4086,7 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D113">
         <v>600</v>
@@ -4112,7 +4112,7 @@
         <v>0.5</v>
       </c>
       <c r="C114">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D114">
         <v>800</v>
@@ -4138,7 +4138,7 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D115">
         <v>800</v>
@@ -4164,7 +4164,7 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <v>49.5</v>
+        <v>22</v>
       </c>
       <c r="D116">
         <v>800</v>
@@ -4190,7 +4190,7 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <v>89.5</v>
+        <v>26</v>
       </c>
       <c r="D117">
         <v>800</v>
@@ -4216,7 +4216,7 @@
         <v>0.5</v>
       </c>
       <c r="C118">
-        <v>20.5</v>
+        <v>8</v>
       </c>
       <c r="D118">
         <v>850</v>
@@ -4242,7 +4242,7 @@
         <v>0.7</v>
       </c>
       <c r="C119">
-        <v>50.5</v>
+        <v>17.5</v>
       </c>
       <c r="D119">
         <v>850</v>
@@ -4268,7 +4268,7 @@
         <v>0.8</v>
       </c>
       <c r="C120">
-        <v>71</v>
+        <v>19.5</v>
       </c>
       <c r="D120">
         <v>850</v>
@@ -4294,7 +4294,7 @@
         <v>0.9</v>
       </c>
       <c r="C121">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D121">
         <v>850</v>
@@ -4320,7 +4320,7 @@
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D122">
         <v>700</v>
@@ -4346,7 +4346,7 @@
         <v>0.7</v>
       </c>
       <c r="C123">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D123">
         <v>700</v>
@@ -4372,7 +4372,7 @@
         <v>0.8</v>
       </c>
       <c r="C124">
-        <v>62.5</v>
+        <v>24</v>
       </c>
       <c r="D124">
         <v>700</v>
@@ -4398,7 +4398,7 @@
         <v>0.9</v>
       </c>
       <c r="C125">
-        <v>88.5</v>
+        <v>28</v>
       </c>
       <c r="D125">
         <v>700</v>
@@ -4424,7 +4424,7 @@
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>25.5</v>
+        <v>10</v>
       </c>
       <c r="D126">
         <v>900</v>
@@ -4450,7 +4450,7 @@
         <v>0.7</v>
       </c>
       <c r="C127">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D127">
         <v>900</v>
@@ -4476,7 +4476,7 @@
         <v>0.8</v>
       </c>
       <c r="C128">
-        <v>68.5</v>
+        <v>19.5</v>
       </c>
       <c r="D128">
         <v>900</v>
@@ -4502,7 +4502,7 @@
         <v>0.9</v>
       </c>
       <c r="C129">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D129">
         <v>900</v>
@@ -4528,7 +4528,7 @@
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D130">
         <v>700</v>
@@ -4554,7 +4554,7 @@
         <v>0.7</v>
       </c>
       <c r="C131">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D131">
         <v>700</v>
@@ -4580,7 +4580,7 @@
         <v>0.8</v>
       </c>
       <c r="C132">
-        <v>63</v>
+        <v>26.5</v>
       </c>
       <c r="D132">
         <v>700</v>
@@ -4606,7 +4606,7 @@
         <v>0.9</v>
       </c>
       <c r="C133">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="D133">
         <v>700</v>
@@ -4632,7 +4632,7 @@
         <v>0.5</v>
       </c>
       <c r="C134">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D134">
         <v>600</v>
@@ -4658,7 +4658,7 @@
         <v>0.7</v>
       </c>
       <c r="C135">
-        <v>43</v>
+        <v>17.5</v>
       </c>
       <c r="D135">
         <v>600</v>
@@ -4684,7 +4684,7 @@
         <v>0.8</v>
       </c>
       <c r="C136">
-        <v>62.5</v>
+        <v>20</v>
       </c>
       <c r="D136">
         <v>600</v>
@@ -4710,7 +4710,7 @@
         <v>0.9</v>
       </c>
       <c r="C137">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D137">
         <v>600</v>
@@ -4736,7 +4736,7 @@
         <v>0.5</v>
       </c>
       <c r="C138">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="D138">
         <v>850</v>
@@ -4762,7 +4762,7 @@
         <v>0.7</v>
       </c>
       <c r="C139">
-        <v>30.5</v>
+        <v>18.5</v>
       </c>
       <c r="D139">
         <v>850</v>
@@ -4788,7 +4788,7 @@
         <v>0.8</v>
       </c>
       <c r="C140">
-        <v>55</v>
+        <v>22.5</v>
       </c>
       <c r="D140">
         <v>850</v>
@@ -4814,7 +4814,7 @@
         <v>0.9</v>
       </c>
       <c r="C141">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D141">
         <v>850</v>
@@ -4840,7 +4840,7 @@
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="D142">
         <v>800</v>
@@ -4866,7 +4866,7 @@
         <v>0.7</v>
       </c>
       <c r="C143">
-        <v>46.5</v>
+        <v>18</v>
       </c>
       <c r="D143">
         <v>800</v>
@@ -4892,7 +4892,7 @@
         <v>0.8</v>
       </c>
       <c r="C144">
-        <v>59.5</v>
+        <v>22</v>
       </c>
       <c r="D144">
         <v>800</v>
@@ -4918,7 +4918,7 @@
         <v>0.9</v>
       </c>
       <c r="C145">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D145">
         <v>800</v>
@@ -4944,7 +4944,7 @@
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D146">
         <v>600</v>
@@ -4970,7 +4970,7 @@
         <v>0.7</v>
       </c>
       <c r="C147">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D147">
         <v>600</v>
@@ -4996,7 +4996,7 @@
         <v>0.8</v>
       </c>
       <c r="C148">
-        <v>63.5</v>
+        <v>20.5</v>
       </c>
       <c r="D148">
         <v>600</v>
@@ -5022,7 +5022,7 @@
         <v>0.9</v>
       </c>
       <c r="C149">
-        <v>101</v>
+        <v>26.5</v>
       </c>
       <c r="D149">
         <v>600</v>
@@ -5048,7 +5048,7 @@
         <v>0.5</v>
       </c>
       <c r="C150">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D150">
         <v>900</v>
@@ -5074,7 +5074,7 @@
         <v>0.7</v>
       </c>
       <c r="C151">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D151">
         <v>900</v>
@@ -5100,7 +5100,7 @@
         <v>0.8</v>
       </c>
       <c r="C152">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D152">
         <v>900</v>
@@ -5126,7 +5126,7 @@
         <v>0.9</v>
       </c>
       <c r="C153">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D153">
         <v>900</v>
@@ -5152,7 +5152,7 @@
         <v>0.5</v>
       </c>
       <c r="C154">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D154">
         <v>900</v>
@@ -5178,7 +5178,7 @@
         <v>0.7</v>
       </c>
       <c r="C155">
-        <v>39.5</v>
+        <v>19</v>
       </c>
       <c r="D155">
         <v>900</v>
@@ -5204,7 +5204,7 @@
         <v>0.8</v>
       </c>
       <c r="C156">
-        <v>57.5</v>
+        <v>22</v>
       </c>
       <c r="D156">
         <v>900</v>
@@ -5230,7 +5230,7 @@
         <v>0.9</v>
       </c>
       <c r="C157">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D157">
         <v>900</v>
@@ -5256,7 +5256,7 @@
         <v>0.5</v>
       </c>
       <c r="C158">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="D158">
         <v>900</v>
@@ -5282,7 +5282,7 @@
         <v>0.7</v>
       </c>
       <c r="C159">
-        <v>46.5</v>
+        <v>22</v>
       </c>
       <c r="D159">
         <v>900</v>
@@ -5308,7 +5308,7 @@
         <v>0.8</v>
       </c>
       <c r="C160">
-        <v>63.5</v>
+        <v>25</v>
       </c>
       <c r="D160">
         <v>900</v>
@@ -5334,7 +5334,7 @@
         <v>0.9</v>
       </c>
       <c r="C161">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="D161">
         <v>900</v>
@@ -5360,7 +5360,7 @@
         <v>0.5</v>
       </c>
       <c r="C162">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D162">
         <v>850</v>
@@ -5386,7 +5386,7 @@
         <v>0.7</v>
       </c>
       <c r="C163">
-        <v>46.5</v>
+        <v>23</v>
       </c>
       <c r="D163">
         <v>850</v>
@@ -5412,7 +5412,7 @@
         <v>0.8</v>
       </c>
       <c r="C164">
-        <v>61.5</v>
+        <v>25.5</v>
       </c>
       <c r="D164">
         <v>850</v>
@@ -5438,7 +5438,7 @@
         <v>0.9</v>
       </c>
       <c r="C165">
-        <v>106.5</v>
+        <v>27</v>
       </c>
       <c r="D165">
         <v>850</v>
@@ -5464,7 +5464,7 @@
         <v>0.5</v>
       </c>
       <c r="C166">
-        <v>21.5</v>
+        <v>10.5</v>
       </c>
       <c r="D166">
         <v>850</v>
@@ -5490,7 +5490,7 @@
         <v>0.7</v>
       </c>
       <c r="C167">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="D167">
         <v>850</v>
@@ -5516,7 +5516,7 @@
         <v>0.8</v>
       </c>
       <c r="C168">
-        <v>56</v>
+        <v>22.5</v>
       </c>
       <c r="D168">
         <v>850</v>
@@ -5542,7 +5542,7 @@
         <v>0.9</v>
       </c>
       <c r="C169">
-        <v>111</v>
+        <v>26.5</v>
       </c>
       <c r="D169">
         <v>850</v>
@@ -5568,7 +5568,7 @@
         <v>0.5</v>
       </c>
       <c r="C170">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D170">
         <v>800</v>
@@ -5594,7 +5594,7 @@
         <v>0.7</v>
       </c>
       <c r="C171">
-        <v>50.5</v>
+        <v>18</v>
       </c>
       <c r="D171">
         <v>800</v>
@@ -5620,7 +5620,7 @@
         <v>0.8</v>
       </c>
       <c r="C172">
-        <v>67.5</v>
+        <v>20</v>
       </c>
       <c r="D172">
         <v>800</v>
@@ -5646,7 +5646,7 @@
         <v>0.9</v>
       </c>
       <c r="C173">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D173">
         <v>800</v>
@@ -5672,7 +5672,7 @@
         <v>0.5</v>
       </c>
       <c r="C174">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D174">
         <v>600</v>
@@ -5698,7 +5698,7 @@
         <v>0.7</v>
       </c>
       <c r="C175">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="D175">
         <v>600</v>
@@ -5724,7 +5724,7 @@
         <v>0.8</v>
       </c>
       <c r="C176">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D176">
         <v>600</v>
@@ -5750,7 +5750,7 @@
         <v>0.9</v>
       </c>
       <c r="C177">
-        <v>69.5</v>
+        <v>21</v>
       </c>
       <c r="D177">
         <v>600</v>
@@ -5776,7 +5776,7 @@
         <v>0.5</v>
       </c>
       <c r="C178">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="D178">
         <v>600</v>
@@ -5802,7 +5802,7 @@
         <v>0.7</v>
       </c>
       <c r="C179">
-        <v>44</v>
+        <v>18.5</v>
       </c>
       <c r="D179">
         <v>600</v>
@@ -5828,7 +5828,7 @@
         <v>0.8</v>
       </c>
       <c r="C180">
-        <v>75.5</v>
+        <v>23</v>
       </c>
       <c r="D180">
         <v>600</v>
@@ -5854,7 +5854,7 @@
         <v>0.9</v>
       </c>
       <c r="C181">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D181">
         <v>600</v>
@@ -5880,7 +5880,7 @@
         <v>0.5</v>
       </c>
       <c r="C182">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="D182">
         <v>800</v>
@@ -5906,7 +5906,7 @@
         <v>0.7</v>
       </c>
       <c r="C183">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D183">
         <v>800</v>
@@ -5932,7 +5932,7 @@
         <v>0.8</v>
       </c>
       <c r="C184">
-        <v>75.5</v>
+        <v>23</v>
       </c>
       <c r="D184">
         <v>800</v>
@@ -5958,7 +5958,7 @@
         <v>0.9</v>
       </c>
       <c r="C185">
-        <v>117</v>
+        <v>23.5</v>
       </c>
       <c r="D185">
         <v>800</v>
@@ -5984,7 +5984,7 @@
         <v>0.5</v>
       </c>
       <c r="C186">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="D186">
         <v>800</v>
@@ -6010,7 +6010,7 @@
         <v>0.7</v>
       </c>
       <c r="C187">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D187">
         <v>800</v>
@@ -6036,7 +6036,7 @@
         <v>0.8</v>
       </c>
       <c r="C188">
-        <v>51.5</v>
+        <v>26</v>
       </c>
       <c r="D188">
         <v>800</v>
@@ -6062,7 +6062,7 @@
         <v>0.9</v>
       </c>
       <c r="C189">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D189">
         <v>800</v>
@@ -6088,7 +6088,7 @@
         <v>0.5</v>
       </c>
       <c r="C190">
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="D190">
         <v>800</v>
@@ -6114,7 +6114,7 @@
         <v>0.7</v>
       </c>
       <c r="C191">
-        <v>35.5</v>
+        <v>18</v>
       </c>
       <c r="D191">
         <v>800</v>
@@ -6140,7 +6140,7 @@
         <v>0.8</v>
       </c>
       <c r="C192">
-        <v>53.5</v>
+        <v>21.5</v>
       </c>
       <c r="D192">
         <v>800</v>
@@ -6166,7 +6166,7 @@
         <v>0.9</v>
       </c>
       <c r="C193">
-        <v>88.5</v>
+        <v>23.5</v>
       </c>
       <c r="D193">
         <v>800</v>
@@ -6192,7 +6192,7 @@
         <v>0.5</v>
       </c>
       <c r="C194">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D194">
         <v>600</v>
@@ -6218,7 +6218,7 @@
         <v>0.7</v>
       </c>
       <c r="C195">
-        <v>35.5</v>
+        <v>19.5</v>
       </c>
       <c r="D195">
         <v>600</v>
@@ -6244,7 +6244,7 @@
         <v>0.8</v>
       </c>
       <c r="C196">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D196">
         <v>600</v>
@@ -6270,7 +6270,7 @@
         <v>0.9</v>
       </c>
       <c r="C197">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="D197">
         <v>600</v>
@@ -6296,7 +6296,7 @@
         <v>0.5</v>
       </c>
       <c r="C198">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="D198">
         <v>600</v>
@@ -6322,7 +6322,7 @@
         <v>0.7</v>
       </c>
       <c r="C199">
-        <v>35.5</v>
+        <v>16.5</v>
       </c>
       <c r="D199">
         <v>600</v>
@@ -6348,7 +6348,7 @@
         <v>0.8</v>
       </c>
       <c r="C200">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D200">
         <v>600</v>
@@ -6374,7 +6374,7 @@
         <v>0.9</v>
       </c>
       <c r="C201">
-        <v>111</v>
+        <v>27.5</v>
       </c>
       <c r="D201">
         <v>600</v>
@@ -6400,7 +6400,7 @@
         <v>0.5</v>
       </c>
       <c r="C202">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="D202">
         <v>700</v>
@@ -6426,7 +6426,7 @@
         <v>0.7</v>
       </c>
       <c r="C203">
-        <v>35</v>
+        <v>15.5</v>
       </c>
       <c r="D203">
         <v>700</v>
@@ -6452,7 +6452,7 @@
         <v>0.8</v>
       </c>
       <c r="C204">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D204">
         <v>700</v>
@@ -6478,7 +6478,7 @@
         <v>0.9</v>
       </c>
       <c r="C205">
-        <v>101.5</v>
+        <v>25.5</v>
       </c>
       <c r="D205">
         <v>700</v>
@@ -6504,7 +6504,7 @@
         <v>0.5</v>
       </c>
       <c r="C206">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D206">
         <v>700</v>
@@ -6530,7 +6530,7 @@
         <v>0.7</v>
       </c>
       <c r="C207">
-        <v>41.5</v>
+        <v>24</v>
       </c>
       <c r="D207">
         <v>700</v>
@@ -6556,7 +6556,7 @@
         <v>0.8</v>
       </c>
       <c r="C208">
-        <v>61.5</v>
+        <v>28</v>
       </c>
       <c r="D208">
         <v>700</v>
@@ -6582,7 +6582,7 @@
         <v>0.9</v>
       </c>
       <c r="C209">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D209">
         <v>700</v>
@@ -6608,7 +6608,7 @@
         <v>0.5</v>
       </c>
       <c r="C210">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D210">
         <v>600</v>
@@ -6634,7 +6634,7 @@
         <v>0.7</v>
       </c>
       <c r="C211">
-        <v>51.5</v>
+        <v>18</v>
       </c>
       <c r="D211">
         <v>600</v>
@@ -6660,7 +6660,7 @@
         <v>0.8</v>
       </c>
       <c r="C212">
-        <v>70</v>
+        <v>21.5</v>
       </c>
       <c r="D212">
         <v>600</v>
@@ -6686,7 +6686,7 @@
         <v>0.9</v>
       </c>
       <c r="C213">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="D213">
         <v>600</v>
@@ -6712,7 +6712,7 @@
         <v>0.5</v>
       </c>
       <c r="C214">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D214">
         <v>800</v>
@@ -6738,7 +6738,7 @@
         <v>0.7</v>
       </c>
       <c r="C215">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D215">
         <v>800</v>
@@ -6764,7 +6764,7 @@
         <v>0.8</v>
       </c>
       <c r="C216">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D216">
         <v>800</v>
@@ -6790,7 +6790,7 @@
         <v>0.9</v>
       </c>
       <c r="C217">
-        <v>88.5</v>
+        <v>23</v>
       </c>
       <c r="D217">
         <v>800</v>
@@ -6816,7 +6816,7 @@
         <v>0.5</v>
       </c>
       <c r="C218">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D218">
         <v>600</v>
@@ -6842,7 +6842,7 @@
         <v>0.7</v>
       </c>
       <c r="C219">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D219">
         <v>600</v>
@@ -6868,7 +6868,7 @@
         <v>0.8</v>
       </c>
       <c r="C220">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D220">
         <v>600</v>
@@ -6894,7 +6894,7 @@
         <v>0.9</v>
       </c>
       <c r="C221">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D221">
         <v>600</v>
@@ -6920,7 +6920,7 @@
         <v>0.5</v>
       </c>
       <c r="C222">
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
       <c r="D222">
         <v>800</v>
@@ -6946,7 +6946,7 @@
         <v>0.7</v>
       </c>
       <c r="C223">
-        <v>44.5</v>
+        <v>19</v>
       </c>
       <c r="D223">
         <v>800</v>
@@ -6972,7 +6972,7 @@
         <v>0.8</v>
       </c>
       <c r="C224">
-        <v>58.5</v>
+        <v>24</v>
       </c>
       <c r="D224">
         <v>800</v>
@@ -6998,7 +6998,7 @@
         <v>0.9</v>
       </c>
       <c r="C225">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="D225">
         <v>800</v>
@@ -7024,7 +7024,7 @@
         <v>0.5</v>
       </c>
       <c r="C226">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="D226">
         <v>700</v>
@@ -7050,7 +7050,7 @@
         <v>0.7</v>
       </c>
       <c r="C227">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D227">
         <v>700</v>
@@ -7076,7 +7076,7 @@
         <v>0.8</v>
       </c>
       <c r="C228">
-        <v>45.5</v>
+        <v>20</v>
       </c>
       <c r="D228">
         <v>700</v>
@@ -7102,7 +7102,7 @@
         <v>0.9</v>
       </c>
       <c r="C229">
-        <v>101</v>
+        <v>24.5</v>
       </c>
       <c r="D229">
         <v>700</v>
@@ -7128,7 +7128,7 @@
         <v>0.5</v>
       </c>
       <c r="C230">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D230">
         <v>900</v>
@@ -7154,7 +7154,7 @@
         <v>0.7</v>
       </c>
       <c r="C231">
-        <v>50.5</v>
+        <v>20.5</v>
       </c>
       <c r="D231">
         <v>900</v>
@@ -7180,7 +7180,7 @@
         <v>0.8</v>
       </c>
       <c r="C232">
-        <v>67.5</v>
+        <v>25</v>
       </c>
       <c r="D232">
         <v>900</v>
@@ -7206,7 +7206,7 @@
         <v>0.9</v>
       </c>
       <c r="C233">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D233">
         <v>900</v>
@@ -7232,7 +7232,7 @@
         <v>0.5</v>
       </c>
       <c r="C234">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D234">
         <v>800</v>
@@ -7258,7 +7258,7 @@
         <v>0.7</v>
       </c>
       <c r="C235">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D235">
         <v>800</v>
@@ -7284,7 +7284,7 @@
         <v>0.8</v>
       </c>
       <c r="C236">
-        <v>107</v>
+        <v>23.5</v>
       </c>
       <c r="D236">
         <v>800</v>
@@ -7310,7 +7310,7 @@
         <v>0.9</v>
       </c>
       <c r="C237">
-        <v>137.5</v>
+        <v>27</v>
       </c>
       <c r="D237">
         <v>800</v>
@@ -7336,7 +7336,7 @@
         <v>0.5</v>
       </c>
       <c r="C238">
-        <v>21.5</v>
+        <v>13</v>
       </c>
       <c r="D238">
         <v>850</v>
@@ -7362,7 +7362,7 @@
         <v>0.7</v>
       </c>
       <c r="C239">
-        <v>36.5</v>
+        <v>19.5</v>
       </c>
       <c r="D239">
         <v>850</v>
@@ -7388,7 +7388,7 @@
         <v>0.8</v>
       </c>
       <c r="C240">
-        <v>68.5</v>
+        <v>25.5</v>
       </c>
       <c r="D240">
         <v>850</v>
@@ -7414,7 +7414,7 @@
         <v>0.9</v>
       </c>
       <c r="C241">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="D241">
         <v>850</v>
@@ -7440,7 +7440,7 @@
         <v>0.5</v>
       </c>
       <c r="C242">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="D242">
         <v>600</v>
@@ -7466,7 +7466,7 @@
         <v>0.7</v>
       </c>
       <c r="C243">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="D243">
         <v>600</v>
@@ -7492,7 +7492,7 @@
         <v>0.8</v>
       </c>
       <c r="C244">
-        <v>34.5</v>
+        <v>19.5</v>
       </c>
       <c r="D244">
         <v>600</v>
@@ -7518,7 +7518,7 @@
         <v>0.9</v>
       </c>
       <c r="C245">
-        <v>69.5</v>
+        <v>26</v>
       </c>
       <c r="D245">
         <v>600</v>
@@ -7544,7 +7544,7 @@
         <v>0.5</v>
       </c>
       <c r="C246">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="D246">
         <v>900</v>
@@ -7570,7 +7570,7 @@
         <v>0.7</v>
       </c>
       <c r="C247">
-        <v>26.5</v>
+        <v>11</v>
       </c>
       <c r="D247">
         <v>900</v>
@@ -7596,7 +7596,7 @@
         <v>0.8</v>
       </c>
       <c r="C248">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="D248">
         <v>900</v>
@@ -7622,7 +7622,7 @@
         <v>0.9</v>
       </c>
       <c r="C249">
-        <v>55.5</v>
+        <v>20.5</v>
       </c>
       <c r="D249">
         <v>900</v>
@@ -7648,7 +7648,7 @@
         <v>0.5</v>
       </c>
       <c r="C250">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="D250">
         <v>700</v>
@@ -7674,7 +7674,7 @@
         <v>0.7</v>
       </c>
       <c r="C251">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="D251">
         <v>700</v>
@@ -7700,7 +7700,7 @@
         <v>0.8</v>
       </c>
       <c r="C252">
-        <v>29.5</v>
+        <v>20.5</v>
       </c>
       <c r="D252">
         <v>700</v>
@@ -7726,7 +7726,7 @@
         <v>0.9</v>
       </c>
       <c r="C253">
-        <v>51.5</v>
+        <v>23.5</v>
       </c>
       <c r="D253">
         <v>700</v>
@@ -7752,7 +7752,7 @@
         <v>0.5</v>
       </c>
       <c r="C254">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="D254">
         <v>850</v>
@@ -7778,7 +7778,7 @@
         <v>0.7</v>
       </c>
       <c r="C255">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="D255">
         <v>850</v>
@@ -7804,7 +7804,7 @@
         <v>0.8</v>
       </c>
       <c r="C256">
-        <v>38.5</v>
+        <v>18</v>
       </c>
       <c r="D256">
         <v>850</v>
@@ -7830,7 +7830,7 @@
         <v>0.9</v>
       </c>
       <c r="C257">
-        <v>56.5</v>
+        <v>23</v>
       </c>
       <c r="D257">
         <v>850</v>
@@ -7856,7 +7856,7 @@
         <v>0.5</v>
       </c>
       <c r="C258">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="D258">
         <v>800</v>
@@ -7882,7 +7882,7 @@
         <v>0.7</v>
       </c>
       <c r="C259">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="D259">
         <v>800</v>
@@ -7908,7 +7908,7 @@
         <v>0.8</v>
       </c>
       <c r="C260">
-        <v>24.5</v>
+        <v>18.5</v>
       </c>
       <c r="D260">
         <v>800</v>
@@ -7934,7 +7934,7 @@
         <v>0.9</v>
       </c>
       <c r="C261">
-        <v>46.5</v>
+        <v>21.5</v>
       </c>
       <c r="D261">
         <v>800</v>
@@ -7960,7 +7960,7 @@
         <v>0.5</v>
       </c>
       <c r="C262">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="D262">
         <v>700</v>
@@ -7986,7 +7986,7 @@
         <v>0.7</v>
       </c>
       <c r="C263">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D263">
         <v>700</v>
@@ -8012,7 +8012,7 @@
         <v>0.8</v>
       </c>
       <c r="C264">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D264">
         <v>700</v>
@@ -8038,7 +8038,7 @@
         <v>0.9</v>
       </c>
       <c r="C265">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D265">
         <v>700</v>
@@ -8064,7 +8064,7 @@
         <v>0.5</v>
       </c>
       <c r="C266">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D266">
         <v>850</v>
@@ -8090,7 +8090,7 @@
         <v>0.7</v>
       </c>
       <c r="C267">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D267">
         <v>850</v>
@@ -8116,7 +8116,7 @@
         <v>0.8</v>
       </c>
       <c r="C268">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D268">
         <v>850</v>
@@ -8142,7 +8142,7 @@
         <v>0.9</v>
       </c>
       <c r="C269">
-        <v>59</v>
+        <v>24.5</v>
       </c>
       <c r="D269">
         <v>850</v>
@@ -8168,7 +8168,7 @@
         <v>0.5</v>
       </c>
       <c r="C270">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D270">
         <v>700</v>
@@ -8194,7 +8194,7 @@
         <v>0.7</v>
       </c>
       <c r="C271">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D271">
         <v>700</v>
@@ -8220,7 +8220,7 @@
         <v>0.8</v>
       </c>
       <c r="C272">
-        <v>27.5</v>
+        <v>19</v>
       </c>
       <c r="D272">
         <v>700</v>
@@ -8246,7 +8246,7 @@
         <v>0.9</v>
       </c>
       <c r="C273">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D273">
         <v>700</v>
@@ -8272,7 +8272,7 @@
         <v>0.5</v>
       </c>
       <c r="C274">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D274">
         <v>900</v>
@@ -8298,7 +8298,7 @@
         <v>0.7</v>
       </c>
       <c r="C275">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D275">
         <v>900</v>
@@ -8324,7 +8324,7 @@
         <v>0.8</v>
       </c>
       <c r="C276">
-        <v>25.5</v>
+        <v>18.5</v>
       </c>
       <c r="D276">
         <v>900</v>
@@ -8350,7 +8350,7 @@
         <v>0.9</v>
       </c>
       <c r="C277">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D277">
         <v>900</v>
@@ -8376,7 +8376,7 @@
         <v>0.5</v>
       </c>
       <c r="C278">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="D278">
         <v>900</v>
@@ -8402,7 +8402,7 @@
         <v>0.7</v>
       </c>
       <c r="C279">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D279">
         <v>900</v>
@@ -8428,7 +8428,7 @@
         <v>0.8</v>
       </c>
       <c r="C280">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D280">
         <v>900</v>
@@ -8454,7 +8454,7 @@
         <v>0.9</v>
       </c>
       <c r="C281">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D281">
         <v>900</v>
@@ -8480,7 +8480,7 @@
         <v>0.5</v>
       </c>
       <c r="C282">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="D282">
         <v>850</v>
@@ -8506,7 +8506,7 @@
         <v>0.7</v>
       </c>
       <c r="C283">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D283">
         <v>850</v>
@@ -8532,7 +8532,7 @@
         <v>0.8</v>
       </c>
       <c r="C284">
-        <v>28.5</v>
+        <v>18</v>
       </c>
       <c r="D284">
         <v>850</v>
@@ -8558,7 +8558,7 @@
         <v>0.9</v>
       </c>
       <c r="C285">
-        <v>53.5</v>
+        <v>23</v>
       </c>
       <c r="D285">
         <v>850</v>
@@ -8584,7 +8584,7 @@
         <v>0.5</v>
       </c>
       <c r="C286">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D286">
         <v>900</v>
@@ -8610,7 +8610,7 @@
         <v>0.7</v>
       </c>
       <c r="C287">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D287">
         <v>900</v>
@@ -8636,7 +8636,7 @@
         <v>0.8</v>
       </c>
       <c r="C288">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D288">
         <v>900</v>
@@ -8662,7 +8662,7 @@
         <v>0.9</v>
       </c>
       <c r="C289">
-        <v>38</v>
+        <v>20.5</v>
       </c>
       <c r="D289">
         <v>900</v>
@@ -8688,7 +8688,7 @@
         <v>0.5</v>
       </c>
       <c r="C290">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D290">
         <v>700</v>
@@ -8714,7 +8714,7 @@
         <v>0.7</v>
       </c>
       <c r="C291">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="D291">
         <v>700</v>
@@ -8740,7 +8740,7 @@
         <v>0.8</v>
       </c>
       <c r="C292">
-        <v>24.5</v>
+        <v>22</v>
       </c>
       <c r="D292">
         <v>700</v>
@@ -8766,7 +8766,7 @@
         <v>0.9</v>
       </c>
       <c r="C293">
-        <v>41.5</v>
+        <v>25</v>
       </c>
       <c r="D293">
         <v>700</v>
@@ -8792,7 +8792,7 @@
         <v>0.5</v>
       </c>
       <c r="C294">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="D294">
         <v>700</v>
@@ -8818,7 +8818,7 @@
         <v>0.7</v>
       </c>
       <c r="C295">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D295">
         <v>700</v>
@@ -8844,7 +8844,7 @@
         <v>0.8</v>
       </c>
       <c r="C296">
-        <v>27.5</v>
+        <v>19</v>
       </c>
       <c r="D296">
         <v>700</v>
@@ -8870,7 +8870,7 @@
         <v>0.9</v>
       </c>
       <c r="C297">
-        <v>57.5</v>
+        <v>24.5</v>
       </c>
       <c r="D297">
         <v>700</v>
@@ -8896,7 +8896,7 @@
         <v>0.5</v>
       </c>
       <c r="C298">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="D298">
         <v>850</v>
@@ -8922,7 +8922,7 @@
         <v>0.7</v>
       </c>
       <c r="C299">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="D299">
         <v>850</v>
@@ -8948,7 +8948,7 @@
         <v>0.8</v>
       </c>
       <c r="C300">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D300">
         <v>850</v>
@@ -8974,7 +8974,7 @@
         <v>0.9</v>
       </c>
       <c r="C301">
-        <v>38.5</v>
+        <v>22</v>
       </c>
       <c r="D301">
         <v>850</v>
@@ -9000,7 +9000,7 @@
         <v>0.5</v>
       </c>
       <c r="C302">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D302">
         <v>850</v>
@@ -9026,7 +9026,7 @@
         <v>0.7</v>
       </c>
       <c r="C303">
-        <v>31.5</v>
+        <v>18</v>
       </c>
       <c r="D303">
         <v>850</v>
@@ -9052,7 +9052,7 @@
         <v>0.8</v>
       </c>
       <c r="C304">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D304">
         <v>850</v>
@@ -9078,7 +9078,7 @@
         <v>0.9</v>
       </c>
       <c r="C305">
-        <v>58.5</v>
+        <v>22</v>
       </c>
       <c r="D305">
         <v>850</v>
@@ -9104,7 +9104,7 @@
         <v>0.5</v>
       </c>
       <c r="C306">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="D306">
         <v>600</v>
@@ -9130,7 +9130,7 @@
         <v>0.7</v>
       </c>
       <c r="C307">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D307">
         <v>600</v>
@@ -9156,7 +9156,7 @@
         <v>0.8</v>
       </c>
       <c r="C308">
-        <v>26.5</v>
+        <v>19.5</v>
       </c>
       <c r="D308">
         <v>600</v>
@@ -9182,7 +9182,7 @@
         <v>0.9</v>
       </c>
       <c r="C309">
-        <v>43.5</v>
+        <v>26</v>
       </c>
       <c r="D309">
         <v>600</v>
@@ -9208,7 +9208,7 @@
         <v>0.5</v>
       </c>
       <c r="C310">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D310">
         <v>900</v>
@@ -9234,7 +9234,7 @@
         <v>0.7</v>
       </c>
       <c r="C311">
-        <v>27.5</v>
+        <v>18</v>
       </c>
       <c r="D311">
         <v>900</v>
@@ -9260,7 +9260,7 @@
         <v>0.8</v>
       </c>
       <c r="C312">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D312">
         <v>900</v>
@@ -9286,7 +9286,7 @@
         <v>0.9</v>
       </c>
       <c r="C313">
-        <v>48.5</v>
+        <v>22</v>
       </c>
       <c r="D313">
         <v>900</v>
@@ -9312,7 +9312,7 @@
         <v>0.5</v>
       </c>
       <c r="C314">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="D314">
         <v>700</v>
@@ -9338,7 +9338,7 @@
         <v>0.7</v>
       </c>
       <c r="C315">
-        <v>25.5</v>
+        <v>12.5</v>
       </c>
       <c r="D315">
         <v>700</v>
@@ -9364,7 +9364,7 @@
         <v>0.8</v>
       </c>
       <c r="C316">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D316">
         <v>700</v>
@@ -9390,7 +9390,7 @@
         <v>0.9</v>
       </c>
       <c r="C317">
-        <v>52.5</v>
+        <v>23.5</v>
       </c>
       <c r="D317">
         <v>700</v>
@@ -9416,7 +9416,7 @@
         <v>0.5</v>
       </c>
       <c r="C318">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D318">
         <v>900</v>
@@ -9442,7 +9442,7 @@
         <v>0.7</v>
       </c>
       <c r="C319">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D319">
         <v>900</v>
@@ -9468,7 +9468,7 @@
         <v>0.8</v>
       </c>
       <c r="C320">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D320">
         <v>900</v>
@@ -9494,7 +9494,7 @@
         <v>0.9</v>
       </c>
       <c r="C321">
-        <v>50.5</v>
+        <v>22</v>
       </c>
       <c r="D321">
         <v>900</v>
@@ -9520,7 +9520,7 @@
         <v>0.5</v>
       </c>
       <c r="C322">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="D322">
         <v>850</v>
@@ -9546,7 +9546,7 @@
         <v>0.7</v>
       </c>
       <c r="C323">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="D323">
         <v>850</v>
@@ -9572,7 +9572,7 @@
         <v>0.8</v>
       </c>
       <c r="C324">
-        <v>29</v>
+        <v>20.5</v>
       </c>
       <c r="D324">
         <v>850</v>
@@ -9598,7 +9598,7 @@
         <v>0.9</v>
       </c>
       <c r="C325">
-        <v>57.5</v>
+        <v>22</v>
       </c>
       <c r="D325">
         <v>850</v>
@@ -9624,7 +9624,7 @@
         <v>0.5</v>
       </c>
       <c r="C326">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="D326">
         <v>800</v>
@@ -9650,7 +9650,7 @@
         <v>0.7</v>
       </c>
       <c r="C327">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="D327">
         <v>800</v>
@@ -9676,7 +9676,7 @@
         <v>0.8</v>
       </c>
       <c r="C328">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D328">
         <v>800</v>
@@ -9702,7 +9702,7 @@
         <v>0.9</v>
       </c>
       <c r="C329">
-        <v>58</v>
+        <v>20.5</v>
       </c>
       <c r="D329">
         <v>800</v>
@@ -9728,7 +9728,7 @@
         <v>0.5</v>
       </c>
       <c r="C330">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="D330">
         <v>800</v>
@@ -9754,7 +9754,7 @@
         <v>0.7</v>
       </c>
       <c r="C331">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="D331">
         <v>800</v>
@@ -9780,7 +9780,7 @@
         <v>0.8</v>
       </c>
       <c r="C332">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D332">
         <v>800</v>
@@ -9806,7 +9806,7 @@
         <v>0.9</v>
       </c>
       <c r="C333">
-        <v>53.5</v>
+        <v>24</v>
       </c>
       <c r="D333">
         <v>800</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="C334">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D334">
         <v>600</v>
@@ -9858,7 +9858,7 @@
         <v>0.7</v>
       </c>
       <c r="C335">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D335">
         <v>600</v>
@@ -9884,7 +9884,7 @@
         <v>0.8</v>
       </c>
       <c r="C336">
-        <v>31</v>
+        <v>20.5</v>
       </c>
       <c r="D336">
         <v>600</v>
@@ -9910,7 +9910,7 @@
         <v>0.9</v>
       </c>
       <c r="C337">
-        <v>46.5</v>
+        <v>25.5</v>
       </c>
       <c r="D337">
         <v>600</v>
@@ -9936,7 +9936,7 @@
         <v>0.5</v>
       </c>
       <c r="C338">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D338">
         <v>850</v>
@@ -9962,7 +9962,7 @@
         <v>0.7</v>
       </c>
       <c r="C339">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="D339">
         <v>850</v>
@@ -9988,7 +9988,7 @@
         <v>0.8</v>
       </c>
       <c r="C340">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="D340">
         <v>850</v>
@@ -10014,7 +10014,7 @@
         <v>0.9</v>
       </c>
       <c r="C341">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D341">
         <v>850</v>
@@ -10040,7 +10040,7 @@
         <v>0.5</v>
       </c>
       <c r="C342">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="D342">
         <v>900</v>
@@ -10066,7 +10066,7 @@
         <v>0.7</v>
       </c>
       <c r="C343">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D343">
         <v>900</v>
@@ -10092,7 +10092,7 @@
         <v>0.8</v>
       </c>
       <c r="C344">
-        <v>28.5</v>
+        <v>20</v>
       </c>
       <c r="D344">
         <v>900</v>
@@ -10118,7 +10118,7 @@
         <v>0.9</v>
       </c>
       <c r="C345">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D345">
         <v>900</v>
@@ -10144,7 +10144,7 @@
         <v>0.5</v>
       </c>
       <c r="C346">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D346">
         <v>600</v>
@@ -10170,7 +10170,7 @@
         <v>0.7</v>
       </c>
       <c r="C347">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="D347">
         <v>600</v>
@@ -10196,7 +10196,7 @@
         <v>0.8</v>
       </c>
       <c r="C348">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="D348">
         <v>600</v>
@@ -10222,7 +10222,7 @@
         <v>0.9</v>
       </c>
       <c r="C349">
-        <v>52</v>
+        <v>24.5</v>
       </c>
       <c r="D349">
         <v>600</v>
@@ -10248,7 +10248,7 @@
         <v>0.5</v>
       </c>
       <c r="C350">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="D350">
         <v>600</v>
@@ -10274,7 +10274,7 @@
         <v>0.7</v>
       </c>
       <c r="C351">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D351">
         <v>600</v>
@@ -10300,7 +10300,7 @@
         <v>0.8</v>
       </c>
       <c r="C352">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="D352">
         <v>600</v>
@@ -10326,7 +10326,7 @@
         <v>0.9</v>
       </c>
       <c r="C353">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D353">
         <v>600</v>
@@ -10352,7 +10352,7 @@
         <v>0.5</v>
       </c>
       <c r="C354">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="D354">
         <v>800</v>
@@ -10378,7 +10378,7 @@
         <v>0.7</v>
       </c>
       <c r="C355">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D355">
         <v>800</v>
@@ -10404,7 +10404,7 @@
         <v>0.8</v>
       </c>
       <c r="C356">
-        <v>22.5</v>
+        <v>19</v>
       </c>
       <c r="D356">
         <v>800</v>
@@ -10430,7 +10430,7 @@
         <v>0.9</v>
       </c>
       <c r="C357">
-        <v>45.5</v>
+        <v>22</v>
       </c>
       <c r="D357">
         <v>800</v>
@@ -10456,7 +10456,7 @@
         <v>0.5</v>
       </c>
       <c r="C358">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D358">
         <v>800</v>
@@ -10482,7 +10482,7 @@
         <v>0.7</v>
       </c>
       <c r="C359">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D359">
         <v>800</v>
@@ -10508,7 +10508,7 @@
         <v>0.8</v>
       </c>
       <c r="C360">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D360">
         <v>800</v>
@@ -10534,7 +10534,7 @@
         <v>0.9</v>
       </c>
       <c r="C361">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D361">
         <v>800</v>
@@ -10560,7 +10560,7 @@
         <v>0.5</v>
       </c>
       <c r="C362">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D362">
         <v>700</v>
@@ -10586,7 +10586,7 @@
         <v>0.7</v>
       </c>
       <c r="C363">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D363">
         <v>700</v>
@@ -10612,7 +10612,7 @@
         <v>0.8</v>
       </c>
       <c r="C364">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D364">
         <v>700</v>
@@ -10638,7 +10638,7 @@
         <v>0.9</v>
       </c>
       <c r="C365">
-        <v>47.5</v>
+        <v>22</v>
       </c>
       <c r="D365">
         <v>700</v>
@@ -10664,7 +10664,7 @@
         <v>0.5</v>
       </c>
       <c r="C366">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="D366">
         <v>850</v>
@@ -10690,7 +10690,7 @@
         <v>0.7</v>
       </c>
       <c r="C367">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D367">
         <v>850</v>
@@ -10716,7 +10716,7 @@
         <v>0.8</v>
       </c>
       <c r="C368">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="D368">
         <v>850</v>
@@ -10742,7 +10742,7 @@
         <v>0.9</v>
       </c>
       <c r="C369">
-        <v>49.5</v>
+        <v>20</v>
       </c>
       <c r="D369">
         <v>850</v>
@@ -10768,7 +10768,7 @@
         <v>0.5</v>
       </c>
       <c r="C370">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D370">
         <v>600</v>
@@ -10794,7 +10794,7 @@
         <v>0.7</v>
       </c>
       <c r="C371">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D371">
         <v>600</v>
@@ -10820,7 +10820,7 @@
         <v>0.8</v>
       </c>
       <c r="C372">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D372">
         <v>600</v>
@@ -10846,7 +10846,7 @@
         <v>0.9</v>
       </c>
       <c r="C373">
-        <v>51</v>
+        <v>23.5</v>
       </c>
       <c r="D373">
         <v>600</v>
@@ -10872,7 +10872,7 @@
         <v>0.5</v>
       </c>
       <c r="C374">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="D374">
         <v>900</v>
@@ -10898,7 +10898,7 @@
         <v>0.7</v>
       </c>
       <c r="C375">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="D375">
         <v>900</v>
@@ -10924,7 +10924,7 @@
         <v>0.8</v>
       </c>
       <c r="C376">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="D376">
         <v>900</v>
@@ -10950,7 +10950,7 @@
         <v>0.9</v>
       </c>
       <c r="C377">
-        <v>44.5</v>
+        <v>20</v>
       </c>
       <c r="D377">
         <v>900</v>
@@ -10976,7 +10976,7 @@
         <v>0.5</v>
       </c>
       <c r="C378">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="D378">
         <v>800</v>
@@ -11002,7 +11002,7 @@
         <v>0.7</v>
       </c>
       <c r="C379">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D379">
         <v>800</v>
@@ -11028,7 +11028,7 @@
         <v>0.8</v>
       </c>
       <c r="C380">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="D380">
         <v>800</v>
@@ -11054,7 +11054,7 @@
         <v>0.9</v>
       </c>
       <c r="C381">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D381">
         <v>800</v>
@@ -11080,7 +11080,7 @@
         <v>0.5</v>
       </c>
       <c r="C382">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="D382">
         <v>800</v>
@@ -11106,7 +11106,7 @@
         <v>0.7</v>
       </c>
       <c r="C383">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D383">
         <v>800</v>
@@ -11132,7 +11132,7 @@
         <v>0.8</v>
       </c>
       <c r="C384">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D384">
         <v>800</v>
@@ -11158,7 +11158,7 @@
         <v>0.9</v>
       </c>
       <c r="C385">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D385">
         <v>800</v>
@@ -11184,7 +11184,7 @@
         <v>0.5</v>
       </c>
       <c r="C386">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D386">
         <v>600</v>
@@ -11210,7 +11210,7 @@
         <v>0.7</v>
       </c>
       <c r="C387">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D387">
         <v>600</v>
@@ -11236,7 +11236,7 @@
         <v>0.8</v>
       </c>
       <c r="C388">
-        <v>29.5</v>
+        <v>20</v>
       </c>
       <c r="D388">
         <v>600</v>
@@ -11262,7 +11262,7 @@
         <v>0.9</v>
       </c>
       <c r="C389">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D389">
         <v>600</v>
@@ -11288,7 +11288,7 @@
         <v>0.5</v>
       </c>
       <c r="C390">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D390">
         <v>700</v>
@@ -11314,7 +11314,7 @@
         <v>0.7</v>
       </c>
       <c r="C391">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D391">
         <v>700</v>
@@ -11340,7 +11340,7 @@
         <v>0.8</v>
       </c>
       <c r="C392">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D392">
         <v>700</v>
@@ -11366,7 +11366,7 @@
         <v>0.9</v>
       </c>
       <c r="C393">
-        <v>63.5</v>
+        <v>20</v>
       </c>
       <c r="D393">
         <v>700</v>
@@ -11392,7 +11392,7 @@
         <v>0.5</v>
       </c>
       <c r="C394">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="D394">
         <v>600</v>
@@ -11418,7 +11418,7 @@
         <v>0.7</v>
       </c>
       <c r="C395">
-        <v>22.5</v>
+        <v>18.5</v>
       </c>
       <c r="D395">
         <v>600</v>
@@ -11444,7 +11444,7 @@
         <v>0.8</v>
       </c>
       <c r="C396">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D396">
         <v>600</v>
@@ -11470,7 +11470,7 @@
         <v>0.9</v>
       </c>
       <c r="C397">
-        <v>51.5</v>
+        <v>25</v>
       </c>
       <c r="D397">
         <v>600</v>
@@ -11496,7 +11496,7 @@
         <v>0.5</v>
       </c>
       <c r="C398">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="D398">
         <v>800</v>
@@ -11522,7 +11522,7 @@
         <v>0.7</v>
       </c>
       <c r="C399">
-        <v>28.5</v>
+        <v>16.5</v>
       </c>
       <c r="D399">
         <v>800</v>
@@ -11548,7 +11548,7 @@
         <v>0.8</v>
       </c>
       <c r="C400">
-        <v>41</v>
+        <v>18.5</v>
       </c>
       <c r="D400">
         <v>800</v>
@@ -11574,7 +11574,7 @@
         <v>0.9</v>
       </c>
       <c r="C401">
-        <v>54.5</v>
+        <v>23</v>
       </c>
       <c r="D401">
         <v>800</v>
@@ -11600,7 +11600,7 @@
         <v>0.5</v>
       </c>
       <c r="C402">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D402">
         <v>600</v>
@@ -11626,7 +11626,7 @@
         <v>0.7</v>
       </c>
       <c r="C403">
-        <v>44.5</v>
+        <v>20</v>
       </c>
       <c r="D403">
         <v>600</v>
@@ -11652,7 +11652,7 @@
         <v>0.8</v>
       </c>
       <c r="C404">
-        <v>69</v>
+        <v>24.5</v>
       </c>
       <c r="D404">
         <v>600</v>
@@ -11678,7 +11678,7 @@
         <v>0.9</v>
       </c>
       <c r="C405">
-        <v>115.5</v>
+        <v>27.5</v>
       </c>
       <c r="D405">
         <v>600</v>
@@ -11704,7 +11704,7 @@
         <v>0.5</v>
       </c>
       <c r="C406">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="D406">
         <v>900</v>
@@ -11730,7 +11730,7 @@
         <v>0.7</v>
       </c>
       <c r="C407">
-        <v>36.5</v>
+        <v>18</v>
       </c>
       <c r="D407">
         <v>900</v>
@@ -11756,7 +11756,7 @@
         <v>0.8</v>
       </c>
       <c r="C408">
-        <v>52.5</v>
+        <v>21.5</v>
       </c>
       <c r="D408">
         <v>900</v>
@@ -11782,7 +11782,7 @@
         <v>0.9</v>
       </c>
       <c r="C409">
-        <v>82</v>
+        <v>26.5</v>
       </c>
       <c r="D409">
         <v>900</v>
@@ -11808,7 +11808,7 @@
         <v>0.5</v>
       </c>
       <c r="C410">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D410">
         <v>700</v>
@@ -11834,7 +11834,7 @@
         <v>0.7</v>
       </c>
       <c r="C411">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D411">
         <v>700</v>
@@ -11860,7 +11860,7 @@
         <v>0.8</v>
       </c>
       <c r="C412">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D412">
         <v>700</v>
@@ -11886,7 +11886,7 @@
         <v>0.9</v>
       </c>
       <c r="C413">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="D413">
         <v>700</v>
@@ -11912,7 +11912,7 @@
         <v>0.5</v>
       </c>
       <c r="C414">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D414">
         <v>900</v>
@@ -11938,7 +11938,7 @@
         <v>0.7</v>
       </c>
       <c r="C415">
-        <v>52.5</v>
+        <v>17</v>
       </c>
       <c r="D415">
         <v>900</v>
@@ -11964,7 +11964,7 @@
         <v>0.8</v>
       </c>
       <c r="C416">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D416">
         <v>900</v>
@@ -11990,7 +11990,7 @@
         <v>0.9</v>
       </c>
       <c r="C417">
-        <v>119.5</v>
+        <v>26</v>
       </c>
       <c r="D417">
         <v>900</v>
@@ -12016,7 +12016,7 @@
         <v>0.5</v>
       </c>
       <c r="C418">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D418">
         <v>800</v>
@@ -12042,7 +12042,7 @@
         <v>0.7</v>
       </c>
       <c r="C419">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D419">
         <v>800</v>
@@ -12068,7 +12068,7 @@
         <v>0.8</v>
       </c>
       <c r="C420">
-        <v>61.5</v>
+        <v>25</v>
       </c>
       <c r="D420">
         <v>800</v>
@@ -12094,7 +12094,7 @@
         <v>0.9</v>
       </c>
       <c r="C421">
-        <v>88.5</v>
+        <v>29.5</v>
       </c>
       <c r="D421">
         <v>800</v>
@@ -12120,7 +12120,7 @@
         <v>0.5</v>
       </c>
       <c r="C422">
-        <v>21.5</v>
+        <v>12</v>
       </c>
       <c r="D422">
         <v>700</v>
@@ -12146,7 +12146,7 @@
         <v>0.7</v>
       </c>
       <c r="C423">
-        <v>29.5</v>
+        <v>22</v>
       </c>
       <c r="D423">
         <v>700</v>
@@ -12172,7 +12172,7 @@
         <v>0.8</v>
       </c>
       <c r="C424">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D424">
         <v>700</v>
@@ -12198,7 +12198,7 @@
         <v>0.9</v>
       </c>
       <c r="C425">
-        <v>77.5</v>
+        <v>26</v>
       </c>
       <c r="D425">
         <v>700</v>
@@ -12224,7 +12224,7 @@
         <v>0.5</v>
       </c>
       <c r="C426">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D426">
         <v>900</v>
@@ -12250,7 +12250,7 @@
         <v>0.7</v>
       </c>
       <c r="C427">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D427">
         <v>900</v>
@@ -12276,7 +12276,7 @@
         <v>0.8</v>
       </c>
       <c r="C428">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D428">
         <v>900</v>
@@ -12302,7 +12302,7 @@
         <v>0.9</v>
       </c>
       <c r="C429">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="D429">
         <v>900</v>
@@ -12328,7 +12328,7 @@
         <v>0.5</v>
       </c>
       <c r="C430">
-        <v>25.5</v>
+        <v>14</v>
       </c>
       <c r="D430">
         <v>900</v>
@@ -12354,7 +12354,7 @@
         <v>0.7</v>
       </c>
       <c r="C431">
-        <v>57.5</v>
+        <v>19</v>
       </c>
       <c r="D431">
         <v>900</v>
@@ -12380,7 +12380,7 @@
         <v>0.8</v>
       </c>
       <c r="C432">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D432">
         <v>900</v>
@@ -12406,7 +12406,7 @@
         <v>0.9</v>
       </c>
       <c r="C433">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="D433">
         <v>900</v>
@@ -12432,7 +12432,7 @@
         <v>0.5</v>
       </c>
       <c r="C434">
-        <v>29.5</v>
+        <v>12.5</v>
       </c>
       <c r="D434">
         <v>700</v>
@@ -12458,7 +12458,7 @@
         <v>0.7</v>
       </c>
       <c r="C435">
-        <v>45</v>
+        <v>17.5</v>
       </c>
       <c r="D435">
         <v>700</v>
@@ -12484,7 +12484,7 @@
         <v>0.8</v>
       </c>
       <c r="C436">
-        <v>77.5</v>
+        <v>21.5</v>
       </c>
       <c r="D436">
         <v>700</v>
@@ -12510,7 +12510,7 @@
         <v>0.9</v>
       </c>
       <c r="C437">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D437">
         <v>700</v>
@@ -12536,7 +12536,7 @@
         <v>0.5</v>
       </c>
       <c r="C438">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="D438">
         <v>600</v>
@@ -12562,7 +12562,7 @@
         <v>0.7</v>
       </c>
       <c r="C439">
-        <v>33</v>
+        <v>15.5</v>
       </c>
       <c r="D439">
         <v>600</v>
@@ -12588,7 +12588,7 @@
         <v>0.8</v>
       </c>
       <c r="C440">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D440">
         <v>600</v>
@@ -12614,7 +12614,7 @@
         <v>0.9</v>
       </c>
       <c r="C441">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D441">
         <v>600</v>
@@ -12640,7 +12640,7 @@
         <v>0.5</v>
       </c>
       <c r="C442">
-        <v>29.5</v>
+        <v>19</v>
       </c>
       <c r="D442">
         <v>700</v>
@@ -12666,7 +12666,7 @@
         <v>0.7</v>
       </c>
       <c r="C443">
-        <v>61</v>
+        <v>22.5</v>
       </c>
       <c r="D443">
         <v>700</v>
@@ -12692,7 +12692,7 @@
         <v>0.8</v>
       </c>
       <c r="C444">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D444">
         <v>700</v>
@@ -12718,7 +12718,7 @@
         <v>0.9</v>
       </c>
       <c r="C445">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D445">
         <v>700</v>
@@ -12744,7 +12744,7 @@
         <v>0.5</v>
       </c>
       <c r="C446">
-        <v>35.5</v>
+        <v>17.5</v>
       </c>
       <c r="D446">
         <v>900</v>
@@ -12770,7 +12770,7 @@
         <v>0.7</v>
       </c>
       <c r="C447">
-        <v>60.5</v>
+        <v>22</v>
       </c>
       <c r="D447">
         <v>900</v>
@@ -12796,7 +12796,7 @@
         <v>0.8</v>
       </c>
       <c r="C448">
-        <v>68.5</v>
+        <v>24</v>
       </c>
       <c r="D448">
         <v>900</v>
@@ -12822,7 +12822,7 @@
         <v>0.9</v>
       </c>
       <c r="C449">
-        <v>86.5</v>
+        <v>28</v>
       </c>
       <c r="D449">
         <v>900</v>
@@ -12848,7 +12848,7 @@
         <v>0.5</v>
       </c>
       <c r="C450">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D450">
         <v>800</v>
@@ -12874,7 +12874,7 @@
         <v>0.7</v>
       </c>
       <c r="C451">
-        <v>37</v>
+        <v>18.5</v>
       </c>
       <c r="D451">
         <v>800</v>
@@ -12900,7 +12900,7 @@
         <v>0.8</v>
       </c>
       <c r="C452">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D452">
         <v>800</v>
@@ -12926,7 +12926,7 @@
         <v>0.9</v>
       </c>
       <c r="C453">
-        <v>82</v>
+        <v>25.5</v>
       </c>
       <c r="D453">
         <v>800</v>
@@ -12952,7 +12952,7 @@
         <v>0.5</v>
       </c>
       <c r="C454">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D454">
         <v>900</v>
@@ -12978,7 +12978,7 @@
         <v>0.7</v>
       </c>
       <c r="C455">
-        <v>49.5</v>
+        <v>22.5</v>
       </c>
       <c r="D455">
         <v>900</v>
@@ -13004,7 +13004,7 @@
         <v>0.8</v>
       </c>
       <c r="C456">
-        <v>71.5</v>
+        <v>24.5</v>
       </c>
       <c r="D456">
         <v>900</v>
@@ -13030,7 +13030,7 @@
         <v>0.9</v>
       </c>
       <c r="C457">
-        <v>112.5</v>
+        <v>28.5</v>
       </c>
       <c r="D457">
         <v>900</v>
@@ -13056,7 +13056,7 @@
         <v>0.5</v>
       </c>
       <c r="C458">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D458">
         <v>700</v>
@@ -13082,7 +13082,7 @@
         <v>0.7</v>
       </c>
       <c r="C459">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D459">
         <v>700</v>
@@ -13108,7 +13108,7 @@
         <v>0.8</v>
       </c>
       <c r="C460">
-        <v>79.5</v>
+        <v>25</v>
       </c>
       <c r="D460">
         <v>700</v>
@@ -13134,7 +13134,7 @@
         <v>0.9</v>
       </c>
       <c r="C461">
-        <v>100.5</v>
+        <v>28</v>
       </c>
       <c r="D461">
         <v>700</v>
@@ -13160,7 +13160,7 @@
         <v>0.5</v>
       </c>
       <c r="C462">
-        <v>32.5</v>
+        <v>11</v>
       </c>
       <c r="D462">
         <v>700</v>
@@ -13186,7 +13186,7 @@
         <v>0.7</v>
       </c>
       <c r="C463">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D463">
         <v>700</v>
@@ -13212,7 +13212,7 @@
         <v>0.8</v>
       </c>
       <c r="C464">
-        <v>56.5</v>
+        <v>24</v>
       </c>
       <c r="D464">
         <v>700</v>
@@ -13238,7 +13238,7 @@
         <v>0.9</v>
       </c>
       <c r="C465">
-        <v>92.5</v>
+        <v>26.5</v>
       </c>
       <c r="D465">
         <v>700</v>
@@ -13264,7 +13264,7 @@
         <v>0.5</v>
       </c>
       <c r="C466">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D466">
         <v>600</v>
@@ -13290,7 +13290,7 @@
         <v>0.7</v>
       </c>
       <c r="C467">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D467">
         <v>600</v>
@@ -13316,7 +13316,7 @@
         <v>0.8</v>
       </c>
       <c r="C468">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D468">
         <v>600</v>
@@ -13342,7 +13342,7 @@
         <v>0.9</v>
       </c>
       <c r="C469">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D469">
         <v>600</v>
@@ -13368,7 +13368,7 @@
         <v>0.5</v>
       </c>
       <c r="C470">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D470">
         <v>800</v>
@@ -13394,7 +13394,7 @@
         <v>0.7</v>
       </c>
       <c r="C471">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D471">
         <v>800</v>
@@ -13420,7 +13420,7 @@
         <v>0.8</v>
       </c>
       <c r="C472">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D472">
         <v>800</v>
@@ -13446,7 +13446,7 @@
         <v>0.9</v>
       </c>
       <c r="C473">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D473">
         <v>800</v>
@@ -13472,7 +13472,7 @@
         <v>0.5</v>
       </c>
       <c r="C474">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D474">
         <v>700</v>
@@ -13498,7 +13498,7 @@
         <v>0.7</v>
       </c>
       <c r="C475">
-        <v>36.5</v>
+        <v>16</v>
       </c>
       <c r="D475">
         <v>700</v>
@@ -13524,7 +13524,7 @@
         <v>0.8</v>
       </c>
       <c r="C476">
-        <v>51.5</v>
+        <v>22.5</v>
       </c>
       <c r="D476">
         <v>700</v>
@@ -13550,7 +13550,7 @@
         <v>0.9</v>
       </c>
       <c r="C477">
-        <v>87</v>
+        <v>24.5</v>
       </c>
       <c r="D477">
         <v>700</v>
@@ -13576,7 +13576,7 @@
         <v>0.5</v>
       </c>
       <c r="C478">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D478">
         <v>900</v>
@@ -13602,7 +13602,7 @@
         <v>0.7</v>
       </c>
       <c r="C479">
-        <v>48.5</v>
+        <v>20.5</v>
       </c>
       <c r="D479">
         <v>900</v>
@@ -13628,7 +13628,7 @@
         <v>0.8</v>
       </c>
       <c r="C480">
-        <v>64.5</v>
+        <v>23</v>
       </c>
       <c r="D480">
         <v>900</v>
@@ -13654,7 +13654,7 @@
         <v>0.9</v>
       </c>
       <c r="C481">
-        <v>91</v>
+        <v>27.5</v>
       </c>
       <c r="D481">
         <v>900</v>
@@ -13680,7 +13680,7 @@
         <v>0.5</v>
       </c>
       <c r="C482">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="D482">
         <v>700</v>
@@ -13706,7 +13706,7 @@
         <v>0.7</v>
       </c>
       <c r="C483">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D483">
         <v>700</v>
@@ -13732,7 +13732,7 @@
         <v>0.8</v>
       </c>
       <c r="C484">
-        <v>37.5</v>
+        <v>22.5</v>
       </c>
       <c r="D484">
         <v>700</v>
@@ -13758,7 +13758,7 @@
         <v>0.9</v>
       </c>
       <c r="C485">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D485">
         <v>700</v>
@@ -13784,7 +13784,7 @@
         <v>0.5</v>
       </c>
       <c r="C486">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="D486">
         <v>600</v>
@@ -13810,7 +13810,7 @@
         <v>0.7</v>
       </c>
       <c r="C487">
-        <v>41.5</v>
+        <v>19</v>
       </c>
       <c r="D487">
         <v>600</v>
@@ -13836,7 +13836,7 @@
         <v>0.8</v>
       </c>
       <c r="C488">
-        <v>56</v>
+        <v>23.5</v>
       </c>
       <c r="D488">
         <v>600</v>
@@ -13862,7 +13862,7 @@
         <v>0.9</v>
       </c>
       <c r="C489">
-        <v>86.5</v>
+        <v>26</v>
       </c>
       <c r="D489">
         <v>600</v>
@@ -13888,7 +13888,7 @@
         <v>0.5</v>
       </c>
       <c r="C490">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D490">
         <v>800</v>
@@ -13914,7 +13914,7 @@
         <v>0.7</v>
       </c>
       <c r="C491">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D491">
         <v>800</v>
@@ -13940,7 +13940,7 @@
         <v>0.8</v>
       </c>
       <c r="C492">
-        <v>74.5</v>
+        <v>21</v>
       </c>
       <c r="D492">
         <v>800</v>
@@ -13966,7 +13966,7 @@
         <v>0.9</v>
       </c>
       <c r="C493">
-        <v>111</v>
+        <v>25.5</v>
       </c>
       <c r="D493">
         <v>800</v>
@@ -13992,7 +13992,7 @@
         <v>0.5</v>
       </c>
       <c r="C494">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D494">
         <v>600</v>
@@ -14018,7 +14018,7 @@
         <v>0.7</v>
       </c>
       <c r="C495">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D495">
         <v>600</v>
@@ -14044,7 +14044,7 @@
         <v>0.8</v>
       </c>
       <c r="C496">
-        <v>51.5</v>
+        <v>19.5</v>
       </c>
       <c r="D496">
         <v>600</v>
@@ -14070,7 +14070,7 @@
         <v>0.9</v>
       </c>
       <c r="C497">
-        <v>87</v>
+        <v>25.5</v>
       </c>
       <c r="D497">
         <v>600</v>
@@ -14096,7 +14096,7 @@
         <v>0.5</v>
       </c>
       <c r="C498">
-        <v>30.5</v>
+        <v>14.5</v>
       </c>
       <c r="D498">
         <v>900</v>
@@ -14122,7 +14122,7 @@
         <v>0.7</v>
       </c>
       <c r="C499">
-        <v>59.5</v>
+        <v>22.5</v>
       </c>
       <c r="D499">
         <v>900</v>
@@ -14148,7 +14148,7 @@
         <v>0.8</v>
       </c>
       <c r="C500">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="D500">
         <v>900</v>
@@ -14174,7 +14174,7 @@
         <v>0.9</v>
       </c>
       <c r="C501">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D501">
         <v>900</v>
@@ -14200,7 +14200,7 @@
         <v>0.5</v>
       </c>
       <c r="C502">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D502">
         <v>900</v>
@@ -14226,7 +14226,7 @@
         <v>0.7</v>
       </c>
       <c r="C503">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D503">
         <v>900</v>
@@ -14252,7 +14252,7 @@
         <v>0.8</v>
       </c>
       <c r="C504">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D504">
         <v>900</v>
@@ -14278,7 +14278,7 @@
         <v>0.9</v>
       </c>
       <c r="C505">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D505">
         <v>900</v>
@@ -14304,7 +14304,7 @@
         <v>0.5</v>
       </c>
       <c r="C506">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D506">
         <v>800</v>
@@ -14330,7 +14330,7 @@
         <v>0.7</v>
       </c>
       <c r="C507">
-        <v>70.5</v>
+        <v>19</v>
       </c>
       <c r="D507">
         <v>800</v>
@@ -14356,7 +14356,7 @@
         <v>0.8</v>
       </c>
       <c r="C508">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D508">
         <v>800</v>
@@ -14382,7 +14382,7 @@
         <v>0.9</v>
       </c>
       <c r="C509">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="D509">
         <v>800</v>
@@ -14408,7 +14408,7 @@
         <v>0.5</v>
       </c>
       <c r="C510">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D510">
         <v>600</v>
@@ -14434,7 +14434,7 @@
         <v>0.7</v>
       </c>
       <c r="C511">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D511">
         <v>600</v>
@@ -14460,7 +14460,7 @@
         <v>0.8</v>
       </c>
       <c r="C512">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D512">
         <v>600</v>
@@ -14486,7 +14486,7 @@
         <v>0.9</v>
       </c>
       <c r="C513">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="D513">
         <v>600</v>
@@ -14512,7 +14512,7 @@
         <v>0.5</v>
       </c>
       <c r="C514">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D514">
         <v>600</v>
@@ -14538,7 +14538,7 @@
         <v>0.7</v>
       </c>
       <c r="C515">
-        <v>38.5</v>
+        <v>25</v>
       </c>
       <c r="D515">
         <v>600</v>
@@ -14564,7 +14564,7 @@
         <v>0.8</v>
       </c>
       <c r="C516">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D516">
         <v>600</v>
@@ -14590,7 +14590,7 @@
         <v>0.9</v>
       </c>
       <c r="C517">
-        <v>89.5</v>
+        <v>27.5</v>
       </c>
       <c r="D517">
         <v>600</v>
@@ -14616,7 +14616,7 @@
         <v>0.5</v>
       </c>
       <c r="C518">
-        <v>21.5</v>
+        <v>13</v>
       </c>
       <c r="D518">
         <v>800</v>
@@ -14642,7 +14642,7 @@
         <v>0.7</v>
       </c>
       <c r="C519">
-        <v>35</v>
+        <v>21.5</v>
       </c>
       <c r="D519">
         <v>800</v>
@@ -14668,7 +14668,7 @@
         <v>0.8</v>
       </c>
       <c r="C520">
-        <v>50.5</v>
+        <v>23.5</v>
       </c>
       <c r="D520">
         <v>800</v>
@@ -14694,7 +14694,7 @@
         <v>0.9</v>
       </c>
       <c r="C521">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D521">
         <v>800</v>
@@ -14720,7 +14720,7 @@
         <v>0.5</v>
       </c>
       <c r="C522">
-        <v>26.5</v>
+        <v>19</v>
       </c>
       <c r="D522">
         <v>800</v>
@@ -14746,7 +14746,7 @@
         <v>0.7</v>
       </c>
       <c r="C523">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D523">
         <v>800</v>
@@ -14772,7 +14772,7 @@
         <v>0.8</v>
       </c>
       <c r="C524">
-        <v>64.5</v>
+        <v>26.5</v>
       </c>
       <c r="D524">
         <v>800</v>
@@ -14798,7 +14798,7 @@
         <v>0.9</v>
       </c>
       <c r="C525">
-        <v>89.5</v>
+        <v>27.5</v>
       </c>
       <c r="D525">
         <v>800</v>
@@ -14824,7 +14824,7 @@
         <v>0.5</v>
       </c>
       <c r="C526">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D526">
         <v>600</v>
@@ -14850,7 +14850,7 @@
         <v>0.7</v>
       </c>
       <c r="C527">
-        <v>26.5</v>
+        <v>19</v>
       </c>
       <c r="D527">
         <v>600</v>
@@ -14876,7 +14876,7 @@
         <v>0.8</v>
       </c>
       <c r="C528">
-        <v>38.5</v>
+        <v>23</v>
       </c>
       <c r="D528">
         <v>600</v>
@@ -14902,7 +14902,7 @@
         <v>0.9</v>
       </c>
       <c r="C529">
-        <v>76</v>
+        <v>25.5</v>
       </c>
       <c r="D529">
         <v>600</v>
@@ -14928,7 +14928,7 @@
         <v>0.5</v>
       </c>
       <c r="C530">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D530">
         <v>700</v>
@@ -14954,7 +14954,7 @@
         <v>0.7</v>
       </c>
       <c r="C531">
-        <v>39.5</v>
+        <v>17.5</v>
       </c>
       <c r="D531">
         <v>700</v>
@@ -14980,7 +14980,7 @@
         <v>0.8</v>
       </c>
       <c r="C532">
-        <v>54.5</v>
+        <v>20</v>
       </c>
       <c r="D532">
         <v>700</v>
@@ -15006,7 +15006,7 @@
         <v>0.9</v>
       </c>
       <c r="C533">
-        <v>96.5</v>
+        <v>25</v>
       </c>
       <c r="D533">
         <v>700</v>
@@ -15032,7 +15032,7 @@
         <v>0.5</v>
       </c>
       <c r="C534">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D534">
         <v>600</v>
@@ -15058,7 +15058,7 @@
         <v>0.7</v>
       </c>
       <c r="C535">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D535">
         <v>600</v>
@@ -15084,7 +15084,7 @@
         <v>0.8</v>
       </c>
       <c r="C536">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D536">
         <v>600</v>
@@ -15110,7 +15110,7 @@
         <v>0.9</v>
       </c>
       <c r="C537">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D537">
         <v>600</v>
@@ -15136,7 +15136,7 @@
         <v>0.5</v>
       </c>
       <c r="C538">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D538">
         <v>800</v>
@@ -15162,7 +15162,7 @@
         <v>0.7</v>
       </c>
       <c r="C539">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D539">
         <v>800</v>
@@ -15188,7 +15188,7 @@
         <v>0.8</v>
       </c>
       <c r="C540">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D540">
         <v>800</v>
@@ -15214,7 +15214,7 @@
         <v>0.9</v>
       </c>
       <c r="C541">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="D541">
         <v>800</v>
@@ -15240,7 +15240,7 @@
         <v>0.5</v>
       </c>
       <c r="C542">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D542">
         <v>600</v>
@@ -15266,7 +15266,7 @@
         <v>0.7</v>
       </c>
       <c r="C543">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D543">
         <v>600</v>
@@ -15292,7 +15292,7 @@
         <v>0.8</v>
       </c>
       <c r="C544">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D544">
         <v>600</v>
@@ -15318,7 +15318,7 @@
         <v>0.9</v>
       </c>
       <c r="C545">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D545">
         <v>600</v>
@@ -15344,7 +15344,7 @@
         <v>0.5</v>
       </c>
       <c r="C546">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D546">
         <v>800</v>
@@ -15370,7 +15370,7 @@
         <v>0.7</v>
       </c>
       <c r="C547">
-        <v>51.5</v>
+        <v>17</v>
       </c>
       <c r="D547">
         <v>800</v>
@@ -15396,7 +15396,7 @@
         <v>0.8</v>
       </c>
       <c r="C548">
-        <v>74</v>
+        <v>23.5</v>
       </c>
       <c r="D548">
         <v>800</v>
@@ -15422,7 +15422,7 @@
         <v>0.9</v>
       </c>
       <c r="C549">
-        <v>97.5</v>
+        <v>27.5</v>
       </c>
       <c r="D549">
         <v>800</v>
@@ -15448,7 +15448,7 @@
         <v>0.5</v>
       </c>
       <c r="C550">
-        <v>32.5</v>
+        <v>11</v>
       </c>
       <c r="D550">
         <v>700</v>
@@ -15474,7 +15474,7 @@
         <v>0.7</v>
       </c>
       <c r="C551">
-        <v>55.5</v>
+        <v>22.5</v>
       </c>
       <c r="D551">
         <v>700</v>
@@ -15500,7 +15500,7 @@
         <v>0.8</v>
       </c>
       <c r="C552">
-        <v>85.5</v>
+        <v>23</v>
       </c>
       <c r="D552">
         <v>700</v>
@@ -15526,7 +15526,7 @@
         <v>0.9</v>
       </c>
       <c r="C553">
-        <v>104</v>
+        <v>25.5</v>
       </c>
       <c r="D553">
         <v>700</v>
@@ -15552,7 +15552,7 @@
         <v>0.5</v>
       </c>
       <c r="C554">
-        <v>27.5</v>
+        <v>14.5</v>
       </c>
       <c r="D554">
         <v>900</v>
@@ -15578,7 +15578,7 @@
         <v>0.7</v>
       </c>
       <c r="C555">
-        <v>42.5</v>
+        <v>22</v>
       </c>
       <c r="D555">
         <v>900</v>
@@ -15604,7 +15604,7 @@
         <v>0.8</v>
       </c>
       <c r="C556">
-        <v>57</v>
+        <v>24.5</v>
       </c>
       <c r="D556">
         <v>900</v>
@@ -15630,7 +15630,7 @@
         <v>0.9</v>
       </c>
       <c r="C557">
-        <v>95</v>
+        <v>27.5</v>
       </c>
       <c r="D557">
         <v>900</v>
@@ -15656,7 +15656,7 @@
         <v>0.5</v>
       </c>
       <c r="C558">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="D558">
         <v>800</v>
@@ -15682,7 +15682,7 @@
         <v>0.7</v>
       </c>
       <c r="C559">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="D559">
         <v>800</v>
@@ -15708,7 +15708,7 @@
         <v>0.8</v>
       </c>
       <c r="C560">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D560">
         <v>800</v>
@@ -15734,7 +15734,7 @@
         <v>0.9</v>
       </c>
       <c r="C561">
-        <v>96.5</v>
+        <v>24.5</v>
       </c>
       <c r="D561">
         <v>800</v>
@@ -15760,7 +15760,7 @@
         <v>0.5</v>
       </c>
       <c r="C562">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="D562">
         <v>700</v>
@@ -15786,7 +15786,7 @@
         <v>0.7</v>
       </c>
       <c r="C563">
-        <v>22.5</v>
+        <v>8.5</v>
       </c>
       <c r="D563">
         <v>700</v>
@@ -15812,7 +15812,7 @@
         <v>0.8</v>
       </c>
       <c r="C564">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D564">
         <v>700</v>
@@ -15838,7 +15838,7 @@
         <v>0.9</v>
       </c>
       <c r="C565">
-        <v>46.5</v>
+        <v>21</v>
       </c>
       <c r="D565">
         <v>700</v>
@@ -15864,7 +15864,7 @@
         <v>0.5</v>
       </c>
       <c r="C566">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D566">
         <v>900</v>
@@ -15890,7 +15890,7 @@
         <v>0.7</v>
       </c>
       <c r="C567">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="D567">
         <v>900</v>
@@ -15916,7 +15916,7 @@
         <v>0.8</v>
       </c>
       <c r="C568">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="D568">
         <v>900</v>
@@ -15942,7 +15942,7 @@
         <v>0.9</v>
       </c>
       <c r="C569">
-        <v>28.5</v>
+        <v>19</v>
       </c>
       <c r="D569">
         <v>900</v>
@@ -15968,7 +15968,7 @@
         <v>0.5</v>
       </c>
       <c r="C570">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D570">
         <v>800</v>
@@ -15994,7 +15994,7 @@
         <v>0.7</v>
       </c>
       <c r="C571">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="D571">
         <v>800</v>
@@ -16020,7 +16020,7 @@
         <v>0.8</v>
       </c>
       <c r="C572">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="D572">
         <v>800</v>
@@ -16046,7 +16046,7 @@
         <v>0.9</v>
       </c>
       <c r="C573">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D573">
         <v>800</v>
@@ -16072,7 +16072,7 @@
         <v>0.5</v>
       </c>
       <c r="C574">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="D574">
         <v>900</v>
@@ -16098,7 +16098,7 @@
         <v>0.7</v>
       </c>
       <c r="C575">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="D575">
         <v>900</v>
@@ -16124,7 +16124,7 @@
         <v>0.8</v>
       </c>
       <c r="C576">
-        <v>31.5</v>
+        <v>16</v>
       </c>
       <c r="D576">
         <v>900</v>
@@ -16150,7 +16150,7 @@
         <v>0.9</v>
       </c>
       <c r="C577">
-        <v>66.5</v>
+        <v>20</v>
       </c>
       <c r="D577">
         <v>900</v>
@@ -16176,7 +16176,7 @@
         <v>0.5</v>
       </c>
       <c r="C578">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D578">
         <v>700</v>
@@ -16202,7 +16202,7 @@
         <v>0.7</v>
       </c>
       <c r="C579">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D579">
         <v>700</v>
@@ -16228,7 +16228,7 @@
         <v>0.8</v>
       </c>
       <c r="C580">
-        <v>31</v>
+        <v>21.5</v>
       </c>
       <c r="D580">
         <v>700</v>
@@ -16254,7 +16254,7 @@
         <v>0.9</v>
       </c>
       <c r="C581">
-        <v>42.5</v>
+        <v>24</v>
       </c>
       <c r="D581">
         <v>700</v>
@@ -16280,7 +16280,7 @@
         <v>0.5</v>
       </c>
       <c r="C582">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D582">
         <v>700</v>
@@ -16306,7 +16306,7 @@
         <v>0.7</v>
       </c>
       <c r="C583">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D583">
         <v>700</v>
@@ -16332,7 +16332,7 @@
         <v>0.8</v>
       </c>
       <c r="C584">
-        <v>26.5</v>
+        <v>13.5</v>
       </c>
       <c r="D584">
         <v>700</v>
@@ -16358,7 +16358,7 @@
         <v>0.9</v>
       </c>
       <c r="C585">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D585">
         <v>700</v>
@@ -16384,7 +16384,7 @@
         <v>0.5</v>
       </c>
       <c r="C586">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="D586">
         <v>900</v>
@@ -16410,7 +16410,7 @@
         <v>0.7</v>
       </c>
       <c r="C587">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="D587">
         <v>900</v>
@@ -16436,7 +16436,7 @@
         <v>0.8</v>
       </c>
       <c r="C588">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="D588">
         <v>900</v>
@@ -16462,7 +16462,7 @@
         <v>0.9</v>
       </c>
       <c r="C589">
-        <v>52.5</v>
+        <v>22</v>
       </c>
       <c r="D589">
         <v>900</v>
@@ -16488,7 +16488,7 @@
         <v>0.5</v>
       </c>
       <c r="C590">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D590">
         <v>700</v>
@@ -16514,7 +16514,7 @@
         <v>0.7</v>
       </c>
       <c r="C591">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="D591">
         <v>700</v>
@@ -16540,7 +16540,7 @@
         <v>0.8</v>
       </c>
       <c r="C592">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="D592">
         <v>700</v>
@@ -16566,7 +16566,7 @@
         <v>0.9</v>
       </c>
       <c r="C593">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D593">
         <v>700</v>
@@ -16592,7 +16592,7 @@
         <v>0.5</v>
       </c>
       <c r="C594">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="D594">
         <v>900</v>
@@ -16618,7 +16618,7 @@
         <v>0.7</v>
       </c>
       <c r="C595">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="D595">
         <v>900</v>
@@ -16644,7 +16644,7 @@
         <v>0.8</v>
       </c>
       <c r="C596">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D596">
         <v>900</v>
@@ -16670,7 +16670,7 @@
         <v>0.9</v>
       </c>
       <c r="C597">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D597">
         <v>900</v>
@@ -16696,7 +16696,7 @@
         <v>0.5</v>
       </c>
       <c r="C598">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="D598">
         <v>700</v>
@@ -16722,7 +16722,7 @@
         <v>0.7</v>
       </c>
       <c r="C599">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D599">
         <v>700</v>
@@ -16748,7 +16748,7 @@
         <v>0.8</v>
       </c>
       <c r="C600">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D600">
         <v>700</v>
@@ -16774,7 +16774,7 @@
         <v>0.9</v>
       </c>
       <c r="C601">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D601">
         <v>700</v>
@@ -16800,7 +16800,7 @@
         <v>0.5</v>
       </c>
       <c r="C602">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D602">
         <v>600</v>
@@ -16826,7 +16826,7 @@
         <v>0.7</v>
       </c>
       <c r="C603">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D603">
         <v>600</v>
@@ -16852,7 +16852,7 @@
         <v>0.8</v>
       </c>
       <c r="C604">
-        <v>24.5</v>
+        <v>13.5</v>
       </c>
       <c r="D604">
         <v>600</v>
@@ -16878,7 +16878,7 @@
         <v>0.9</v>
       </c>
       <c r="C605">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D605">
         <v>600</v>
@@ -16904,7 +16904,7 @@
         <v>0.5</v>
       </c>
       <c r="C606">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D606">
         <v>900</v>
@@ -16930,7 +16930,7 @@
         <v>0.7</v>
       </c>
       <c r="C607">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D607">
         <v>900</v>
@@ -16956,7 +16956,7 @@
         <v>0.8</v>
       </c>
       <c r="C608">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D608">
         <v>900</v>
@@ -16982,7 +16982,7 @@
         <v>0.9</v>
       </c>
       <c r="C609">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D609">
         <v>900</v>
@@ -17008,7 +17008,7 @@
         <v>0.5</v>
       </c>
       <c r="C610">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D610">
         <v>700</v>
@@ -17034,7 +17034,7 @@
         <v>0.7</v>
       </c>
       <c r="C611">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="D611">
         <v>700</v>
@@ -17060,7 +17060,7 @@
         <v>0.8</v>
       </c>
       <c r="C612">
-        <v>34.5</v>
+        <v>14</v>
       </c>
       <c r="D612">
         <v>700</v>
@@ -17086,7 +17086,7 @@
         <v>0.9</v>
       </c>
       <c r="C613">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D613">
         <v>700</v>
@@ -17112,7 +17112,7 @@
         <v>0.5</v>
       </c>
       <c r="C614">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D614">
         <v>600</v>
@@ -17138,7 +17138,7 @@
         <v>0.7</v>
       </c>
       <c r="C615">
-        <v>25</v>
+        <v>8.5</v>
       </c>
       <c r="D615">
         <v>600</v>
@@ -17164,7 +17164,7 @@
         <v>0.8</v>
       </c>
       <c r="C616">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D616">
         <v>600</v>
@@ -17190,7 +17190,7 @@
         <v>0.9</v>
       </c>
       <c r="C617">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D617">
         <v>600</v>
@@ -17216,7 +17216,7 @@
         <v>0.5</v>
       </c>
       <c r="C618">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D618">
         <v>800</v>
@@ -17242,7 +17242,7 @@
         <v>0.7</v>
       </c>
       <c r="C619">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="D619">
         <v>800</v>
@@ -17268,7 +17268,7 @@
         <v>0.8</v>
       </c>
       <c r="C620">
-        <v>34.5</v>
+        <v>18</v>
       </c>
       <c r="D620">
         <v>800</v>
@@ -17294,7 +17294,7 @@
         <v>0.9</v>
       </c>
       <c r="C621">
-        <v>55.5</v>
+        <v>20</v>
       </c>
       <c r="D621">
         <v>800</v>
@@ -17320,7 +17320,7 @@
         <v>0.5</v>
       </c>
       <c r="C622">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="D622">
         <v>800</v>
@@ -17346,7 +17346,7 @@
         <v>0.7</v>
       </c>
       <c r="C623">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="D623">
         <v>800</v>
@@ -17372,7 +17372,7 @@
         <v>0.8</v>
       </c>
       <c r="C624">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="D624">
         <v>800</v>
@@ -17398,7 +17398,7 @@
         <v>0.9</v>
       </c>
       <c r="C625">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D625">
         <v>800</v>
@@ -17424,7 +17424,7 @@
         <v>0.5</v>
       </c>
       <c r="C626">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D626">
         <v>800</v>
@@ -17450,7 +17450,7 @@
         <v>0.7</v>
       </c>
       <c r="C627">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D627">
         <v>800</v>
@@ -17476,7 +17476,7 @@
         <v>0.8</v>
       </c>
       <c r="C628">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D628">
         <v>800</v>
@@ -17502,7 +17502,7 @@
         <v>0.9</v>
       </c>
       <c r="C629">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D629">
         <v>800</v>
@@ -17554,7 +17554,7 @@
         <v>0.7</v>
       </c>
       <c r="C631">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="D631">
         <v>600</v>
@@ -17580,7 +17580,7 @@
         <v>0.8</v>
       </c>
       <c r="C632">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="D632">
         <v>600</v>
@@ -17606,7 +17606,7 @@
         <v>0.9</v>
       </c>
       <c r="C633">
-        <v>35.5</v>
+        <v>18</v>
       </c>
       <c r="D633">
         <v>600</v>
@@ -17632,7 +17632,7 @@
         <v>0.5</v>
       </c>
       <c r="C634">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D634">
         <v>600</v>
@@ -17658,7 +17658,7 @@
         <v>0.7</v>
       </c>
       <c r="C635">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D635">
         <v>600</v>
@@ -17684,7 +17684,7 @@
         <v>0.8</v>
       </c>
       <c r="C636">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D636">
         <v>600</v>
@@ -17710,7 +17710,7 @@
         <v>0.9</v>
       </c>
       <c r="C637">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D637">
         <v>600</v>
@@ -17736,7 +17736,7 @@
         <v>0.5</v>
       </c>
       <c r="C638">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="D638">
         <v>800</v>
@@ -17762,7 +17762,7 @@
         <v>0.7</v>
       </c>
       <c r="C639">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="D639">
         <v>800</v>
@@ -17788,7 +17788,7 @@
         <v>0.8</v>
       </c>
       <c r="C640">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="D640">
         <v>800</v>
@@ -17814,7 +17814,7 @@
         <v>0.9</v>
       </c>
       <c r="C641">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D641">
         <v>800</v>
@@ -17866,7 +17866,7 @@
         <v>0.7</v>
       </c>
       <c r="C643">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D643">
         <v>600</v>
@@ -17892,7 +17892,7 @@
         <v>0.8</v>
       </c>
       <c r="C644">
-        <v>20.5</v>
+        <v>13</v>
       </c>
       <c r="D644">
         <v>600</v>
@@ -17918,7 +17918,7 @@
         <v>0.9</v>
       </c>
       <c r="C645">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D645">
         <v>600</v>
@@ -17944,7 +17944,7 @@
         <v>0.5</v>
       </c>
       <c r="C646">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D646">
         <v>600</v>
@@ -17970,7 +17970,7 @@
         <v>0.7</v>
       </c>
       <c r="C647">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="D647">
         <v>600</v>
@@ -17996,7 +17996,7 @@
         <v>0.8</v>
       </c>
       <c r="C648">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D648">
         <v>600</v>
@@ -18022,7 +18022,7 @@
         <v>0.9</v>
       </c>
       <c r="C649">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D649">
         <v>600</v>
@@ -18048,7 +18048,7 @@
         <v>0.5</v>
       </c>
       <c r="C650">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="D650">
         <v>900</v>
@@ -18074,7 +18074,7 @@
         <v>0.7</v>
       </c>
       <c r="C651">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="D651">
         <v>900</v>
@@ -18100,7 +18100,7 @@
         <v>0.8</v>
       </c>
       <c r="C652">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="D652">
         <v>900</v>
@@ -18126,7 +18126,7 @@
         <v>0.9</v>
       </c>
       <c r="C653">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D653">
         <v>900</v>
@@ -18178,7 +18178,7 @@
         <v>0.7</v>
       </c>
       <c r="C655">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D655">
         <v>800</v>
@@ -18204,7 +18204,7 @@
         <v>0.8</v>
       </c>
       <c r="C656">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D656">
         <v>800</v>
@@ -18230,7 +18230,7 @@
         <v>0.9</v>
       </c>
       <c r="C657">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D657">
         <v>800</v>
@@ -18256,7 +18256,7 @@
         <v>0.5</v>
       </c>
       <c r="C658">
-        <v>28</v>
+        <v>9.5</v>
       </c>
       <c r="D658">
         <v>700</v>
@@ -18282,7 +18282,7 @@
         <v>0.7</v>
       </c>
       <c r="C659">
-        <v>44.5</v>
+        <v>11</v>
       </c>
       <c r="D659">
         <v>700</v>
@@ -18308,7 +18308,7 @@
         <v>0.8</v>
       </c>
       <c r="C660">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D660">
         <v>700</v>
@@ -18334,7 +18334,7 @@
         <v>0.9</v>
       </c>
       <c r="C661">
-        <v>82</v>
+        <v>22.5</v>
       </c>
       <c r="D661">
         <v>700</v>
@@ -18360,7 +18360,7 @@
         <v>0.5</v>
       </c>
       <c r="C662">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="D662">
         <v>700</v>
@@ -18386,7 +18386,7 @@
         <v>0.7</v>
       </c>
       <c r="C663">
-        <v>46.5</v>
+        <v>14</v>
       </c>
       <c r="D663">
         <v>700</v>
@@ -18412,7 +18412,7 @@
         <v>0.8</v>
       </c>
       <c r="C664">
-        <v>59.5</v>
+        <v>19</v>
       </c>
       <c r="D664">
         <v>700</v>
@@ -18438,7 +18438,7 @@
         <v>0.9</v>
       </c>
       <c r="C665">
-        <v>98.5</v>
+        <v>21</v>
       </c>
       <c r="D665">
         <v>700</v>
@@ -18464,7 +18464,7 @@
         <v>0.5</v>
       </c>
       <c r="C666">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="D666">
         <v>700</v>
@@ -18490,7 +18490,7 @@
         <v>0.7</v>
       </c>
       <c r="C667">
-        <v>26.5</v>
+        <v>15</v>
       </c>
       <c r="D667">
         <v>700</v>
@@ -18516,7 +18516,7 @@
         <v>0.8</v>
       </c>
       <c r="C668">
-        <v>49.5</v>
+        <v>17</v>
       </c>
       <c r="D668">
         <v>700</v>
@@ -18542,7 +18542,7 @@
         <v>0.9</v>
       </c>
       <c r="C669">
-        <v>87.5</v>
+        <v>22</v>
       </c>
       <c r="D669">
         <v>700</v>
@@ -18568,7 +18568,7 @@
         <v>0.5</v>
       </c>
       <c r="C670">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="D670">
         <v>700</v>
@@ -18594,7 +18594,7 @@
         <v>0.7</v>
       </c>
       <c r="C671">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D671">
         <v>700</v>
@@ -18620,7 +18620,7 @@
         <v>0.8</v>
       </c>
       <c r="C672">
-        <v>42</v>
+        <v>20.5</v>
       </c>
       <c r="D672">
         <v>700</v>
@@ -18646,7 +18646,7 @@
         <v>0.9</v>
       </c>
       <c r="C673">
-        <v>69.5</v>
+        <v>25</v>
       </c>
       <c r="D673">
         <v>700</v>
@@ -18672,7 +18672,7 @@
         <v>0.5</v>
       </c>
       <c r="C674">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="D674">
         <v>700</v>
@@ -18698,7 +18698,7 @@
         <v>0.7</v>
       </c>
       <c r="C675">
-        <v>42.5</v>
+        <v>17</v>
       </c>
       <c r="D675">
         <v>700</v>
@@ -18724,7 +18724,7 @@
         <v>0.8</v>
       </c>
       <c r="C676">
-        <v>52.5</v>
+        <v>19.5</v>
       </c>
       <c r="D676">
         <v>700</v>
@@ -18750,7 +18750,7 @@
         <v>0.9</v>
       </c>
       <c r="C677">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="D677">
         <v>700</v>
@@ -18776,7 +18776,7 @@
         <v>0.5</v>
       </c>
       <c r="C678">
-        <v>39.5</v>
+        <v>14</v>
       </c>
       <c r="D678">
         <v>700</v>
@@ -18802,7 +18802,7 @@
         <v>0.7</v>
       </c>
       <c r="C679">
-        <v>69.5</v>
+        <v>19.5</v>
       </c>
       <c r="D679">
         <v>700</v>
@@ -18828,7 +18828,7 @@
         <v>0.8</v>
       </c>
       <c r="C680">
-        <v>85.5</v>
+        <v>21</v>
       </c>
       <c r="D680">
         <v>700</v>
@@ -18854,7 +18854,7 @@
         <v>0.9</v>
       </c>
       <c r="C681">
-        <v>113.5</v>
+        <v>25</v>
       </c>
       <c r="D681">
         <v>700</v>
@@ -18880,7 +18880,7 @@
         <v>0.5</v>
       </c>
       <c r="C682">
-        <v>23.5</v>
+        <v>11</v>
       </c>
       <c r="D682">
         <v>500</v>
@@ -18906,7 +18906,7 @@
         <v>0.7</v>
       </c>
       <c r="C683">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D683">
         <v>500</v>
@@ -18932,7 +18932,7 @@
         <v>0.8</v>
       </c>
       <c r="C684">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D684">
         <v>500</v>
@@ -18958,7 +18958,7 @@
         <v>0.9</v>
       </c>
       <c r="C685">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D685">
         <v>500</v>
@@ -18984,7 +18984,7 @@
         <v>0.5</v>
       </c>
       <c r="C686">
-        <v>35.5</v>
+        <v>9.5</v>
       </c>
       <c r="D686">
         <v>800</v>
@@ -19010,7 +19010,7 @@
         <v>0.7</v>
       </c>
       <c r="C687">
-        <v>52.5</v>
+        <v>10</v>
       </c>
       <c r="D687">
         <v>800</v>
@@ -19036,7 +19036,7 @@
         <v>0.8</v>
       </c>
       <c r="C688">
-        <v>79.5</v>
+        <v>12</v>
       </c>
       <c r="D688">
         <v>800</v>
@@ -19062,7 +19062,7 @@
         <v>0.9</v>
       </c>
       <c r="C689">
-        <v>102</v>
+        <v>16.5</v>
       </c>
       <c r="D689">
         <v>800</v>
@@ -19088,7 +19088,7 @@
         <v>0.5</v>
       </c>
       <c r="C690">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D690">
         <v>600</v>
@@ -19114,7 +19114,7 @@
         <v>0.7</v>
       </c>
       <c r="C691">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D691">
         <v>600</v>
@@ -19140,7 +19140,7 @@
         <v>0.8</v>
       </c>
       <c r="C692">
-        <v>122</v>
+        <v>19.5</v>
       </c>
       <c r="D692">
         <v>600</v>
@@ -19166,7 +19166,7 @@
         <v>0.9</v>
       </c>
       <c r="C693">
-        <v>163.5</v>
+        <v>25</v>
       </c>
       <c r="D693">
         <v>600</v>
@@ -19192,7 +19192,7 @@
         <v>0.5</v>
       </c>
       <c r="C694">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="D694">
         <v>500</v>
@@ -19218,7 +19218,7 @@
         <v>0.7</v>
       </c>
       <c r="C695">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D695">
         <v>500</v>
@@ -19244,7 +19244,7 @@
         <v>0.8</v>
       </c>
       <c r="C696">
-        <v>53.5</v>
+        <v>19.5</v>
       </c>
       <c r="D696">
         <v>500</v>
@@ -19270,7 +19270,7 @@
         <v>0.9</v>
       </c>
       <c r="C697">
-        <v>90.5</v>
+        <v>22.5</v>
       </c>
       <c r="D697">
         <v>500</v>
@@ -19296,7 +19296,7 @@
         <v>0.5</v>
       </c>
       <c r="C698">
-        <v>50.5</v>
+        <v>11.5</v>
       </c>
       <c r="D698">
         <v>500</v>
@@ -19322,7 +19322,7 @@
         <v>0.7</v>
       </c>
       <c r="C699">
-        <v>76.5</v>
+        <v>17.5</v>
       </c>
       <c r="D699">
         <v>500</v>
@@ -19348,7 +19348,7 @@
         <v>0.8</v>
       </c>
       <c r="C700">
-        <v>87</v>
+        <v>22.5</v>
       </c>
       <c r="D700">
         <v>500</v>
@@ -19374,7 +19374,7 @@
         <v>0.9</v>
       </c>
       <c r="C701">
-        <v>136</v>
+        <v>26.5</v>
       </c>
       <c r="D701">
         <v>500</v>
@@ -19400,7 +19400,7 @@
         <v>0.5</v>
       </c>
       <c r="C702">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="D702">
         <v>800</v>
@@ -19426,7 +19426,7 @@
         <v>0.7</v>
       </c>
       <c r="C703">
-        <v>38.5</v>
+        <v>16</v>
       </c>
       <c r="D703">
         <v>800</v>
@@ -19452,7 +19452,7 @@
         <v>0.8</v>
       </c>
       <c r="C704">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D704">
         <v>800</v>
@@ -19478,7 +19478,7 @@
         <v>0.9</v>
       </c>
       <c r="C705">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D705">
         <v>800</v>
@@ -19504,7 +19504,7 @@
         <v>0.5</v>
       </c>
       <c r="C706">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="D706">
         <v>600</v>
@@ -19530,7 +19530,7 @@
         <v>0.7</v>
       </c>
       <c r="C707">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="D707">
         <v>600</v>
@@ -19556,7 +19556,7 @@
         <v>0.8</v>
       </c>
       <c r="C708">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D708">
         <v>600</v>
@@ -19582,7 +19582,7 @@
         <v>0.9</v>
       </c>
       <c r="C709">
-        <v>89.5</v>
+        <v>22</v>
       </c>
       <c r="D709">
         <v>600</v>
@@ -19608,7 +19608,7 @@
         <v>0.5</v>
       </c>
       <c r="C710">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="D710">
         <v>600</v>
@@ -19634,7 +19634,7 @@
         <v>0.7</v>
       </c>
       <c r="C711">
-        <v>50.5</v>
+        <v>16</v>
       </c>
       <c r="D711">
         <v>600</v>
@@ -19660,7 +19660,7 @@
         <v>0.8</v>
       </c>
       <c r="C712">
-        <v>59.5</v>
+        <v>18</v>
       </c>
       <c r="D712">
         <v>600</v>
@@ -19686,7 +19686,7 @@
         <v>0.9</v>
       </c>
       <c r="C713">
-        <v>101.5</v>
+        <v>25.5</v>
       </c>
       <c r="D713">
         <v>600</v>
@@ -19712,7 +19712,7 @@
         <v>0.5</v>
       </c>
       <c r="C714">
-        <v>21.5</v>
+        <v>14</v>
       </c>
       <c r="D714">
         <v>800</v>
@@ -19738,7 +19738,7 @@
         <v>0.7</v>
       </c>
       <c r="C715">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="D715">
         <v>800</v>
@@ -19764,7 +19764,7 @@
         <v>0.8</v>
       </c>
       <c r="C716">
-        <v>46.5</v>
+        <v>22</v>
       </c>
       <c r="D716">
         <v>800</v>
@@ -19790,7 +19790,7 @@
         <v>0.9</v>
       </c>
       <c r="C717">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D717">
         <v>800</v>
@@ -19816,7 +19816,7 @@
         <v>0.5</v>
       </c>
       <c r="C718">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="D718">
         <v>800</v>
@@ -19842,7 +19842,7 @@
         <v>0.7</v>
       </c>
       <c r="C719">
-        <v>41</v>
+        <v>17.5</v>
       </c>
       <c r="D719">
         <v>800</v>
@@ -19868,7 +19868,7 @@
         <v>0.8</v>
       </c>
       <c r="C720">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D720">
         <v>800</v>
@@ -19894,7 +19894,7 @@
         <v>0.9</v>
       </c>
       <c r="C721">
-        <v>84</v>
+        <v>24.5</v>
       </c>
       <c r="D721">
         <v>800</v>
@@ -19920,7 +19920,7 @@
         <v>0.5</v>
       </c>
       <c r="C722">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="D722">
         <v>600</v>
@@ -19946,7 +19946,7 @@
         <v>0.7</v>
       </c>
       <c r="C723">
-        <v>40.5</v>
+        <v>14</v>
       </c>
       <c r="D723">
         <v>600</v>
@@ -19972,7 +19972,7 @@
         <v>0.8</v>
       </c>
       <c r="C724">
-        <v>55.5</v>
+        <v>17.5</v>
       </c>
       <c r="D724">
         <v>600</v>
@@ -19998,7 +19998,7 @@
         <v>0.9</v>
       </c>
       <c r="C725">
-        <v>83.5</v>
+        <v>22.5</v>
       </c>
       <c r="D725">
         <v>600</v>
@@ -20024,7 +20024,7 @@
         <v>0.5</v>
       </c>
       <c r="C726">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="D726">
         <v>500</v>
@@ -20050,7 +20050,7 @@
         <v>0.7</v>
       </c>
       <c r="C727">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D727">
         <v>500</v>
@@ -20076,7 +20076,7 @@
         <v>0.8</v>
       </c>
       <c r="C728">
-        <v>60.5</v>
+        <v>19.5</v>
       </c>
       <c r="D728">
         <v>500</v>
@@ -20102,7 +20102,7 @@
         <v>0.9</v>
       </c>
       <c r="C729">
-        <v>106.5</v>
+        <v>25</v>
       </c>
       <c r="D729">
         <v>500</v>
@@ -20128,7 +20128,7 @@
         <v>0.5</v>
       </c>
       <c r="C730">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D730">
         <v>600</v>
@@ -20154,7 +20154,7 @@
         <v>0.7</v>
       </c>
       <c r="C731">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D731">
         <v>600</v>
@@ -20180,7 +20180,7 @@
         <v>0.8</v>
       </c>
       <c r="C732">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D732">
         <v>600</v>
@@ -20206,7 +20206,7 @@
         <v>0.9</v>
       </c>
       <c r="C733">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D733">
         <v>600</v>
@@ -20232,7 +20232,7 @@
         <v>0.5</v>
       </c>
       <c r="C734">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D734">
         <v>800</v>
@@ -20258,7 +20258,7 @@
         <v>0.7</v>
       </c>
       <c r="C735">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="D735">
         <v>800</v>
@@ -20284,7 +20284,7 @@
         <v>0.8</v>
       </c>
       <c r="C736">
-        <v>48</v>
+        <v>19.5</v>
       </c>
       <c r="D736">
         <v>800</v>
@@ -20310,7 +20310,7 @@
         <v>0.9</v>
       </c>
       <c r="C737">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D737">
         <v>800</v>
@@ -20336,7 +20336,7 @@
         <v>0.5</v>
       </c>
       <c r="C738">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="D738">
         <v>600</v>
@@ -20362,7 +20362,7 @@
         <v>0.7</v>
       </c>
       <c r="C739">
-        <v>41</v>
+        <v>12.5</v>
       </c>
       <c r="D739">
         <v>600</v>
@@ -20388,7 +20388,7 @@
         <v>0.8</v>
       </c>
       <c r="C740">
-        <v>54.5</v>
+        <v>17</v>
       </c>
       <c r="D740">
         <v>600</v>
@@ -20414,7 +20414,7 @@
         <v>0.9</v>
       </c>
       <c r="C741">
-        <v>98.5</v>
+        <v>21</v>
       </c>
       <c r="D741">
         <v>600</v>
@@ -20440,7 +20440,7 @@
         <v>0.5</v>
       </c>
       <c r="C742">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D742">
         <v>800</v>
@@ -20466,7 +20466,7 @@
         <v>0.7</v>
       </c>
       <c r="C743">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D743">
         <v>800</v>
@@ -20492,7 +20492,7 @@
         <v>0.8</v>
       </c>
       <c r="C744">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D744">
         <v>800</v>
@@ -20518,7 +20518,7 @@
         <v>0.9</v>
       </c>
       <c r="C745">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D745">
         <v>800</v>
@@ -20544,7 +20544,7 @@
         <v>0.5</v>
       </c>
       <c r="C746">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D746">
         <v>500</v>
@@ -20570,7 +20570,7 @@
         <v>0.7</v>
       </c>
       <c r="C747">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D747">
         <v>500</v>
@@ -20596,7 +20596,7 @@
         <v>0.8</v>
       </c>
       <c r="C748">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D748">
         <v>500</v>
@@ -20622,7 +20622,7 @@
         <v>0.9</v>
       </c>
       <c r="C749">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D749">
         <v>500</v>
@@ -20648,7 +20648,7 @@
         <v>0.5</v>
       </c>
       <c r="C750">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="D750">
         <v>500</v>
@@ -20674,7 +20674,7 @@
         <v>0.7</v>
       </c>
       <c r="C751">
-        <v>32.5</v>
+        <v>12.5</v>
       </c>
       <c r="D751">
         <v>500</v>
@@ -20700,7 +20700,7 @@
         <v>0.8</v>
       </c>
       <c r="C752">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D752">
         <v>500</v>
@@ -20726,7 +20726,7 @@
         <v>0.9</v>
       </c>
       <c r="C753">
-        <v>65.5</v>
+        <v>23</v>
       </c>
       <c r="D753">
         <v>500</v>
@@ -20752,7 +20752,7 @@
         <v>0.5</v>
       </c>
       <c r="C754">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="D754">
         <v>700</v>
@@ -20778,7 +20778,7 @@
         <v>0.7</v>
       </c>
       <c r="C755">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D755">
         <v>700</v>
@@ -20804,7 +20804,7 @@
         <v>0.8</v>
       </c>
       <c r="C756">
-        <v>27.5</v>
+        <v>12.5</v>
       </c>
       <c r="D756">
         <v>700</v>
@@ -20830,7 +20830,7 @@
         <v>0.9</v>
       </c>
       <c r="C757">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="D757">
         <v>700</v>
@@ -20856,7 +20856,7 @@
         <v>0.5</v>
       </c>
       <c r="C758">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="D758">
         <v>700</v>
@@ -20882,7 +20882,7 @@
         <v>0.7</v>
       </c>
       <c r="C759">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D759">
         <v>700</v>
@@ -20908,7 +20908,7 @@
         <v>0.8</v>
       </c>
       <c r="C760">
-        <v>42.5</v>
+        <v>19</v>
       </c>
       <c r="D760">
         <v>700</v>
@@ -20934,7 +20934,7 @@
         <v>0.9</v>
       </c>
       <c r="C761">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D761">
         <v>700</v>
@@ -20960,7 +20960,7 @@
         <v>0.5</v>
       </c>
       <c r="C762">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D762">
         <v>700</v>
@@ -20986,7 +20986,7 @@
         <v>0.7</v>
       </c>
       <c r="C763">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="D763">
         <v>700</v>
@@ -21012,7 +21012,7 @@
         <v>0.8</v>
       </c>
       <c r="C764">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="D764">
         <v>700</v>
@@ -21038,7 +21038,7 @@
         <v>0.9</v>
       </c>
       <c r="C765">
-        <v>50</v>
+        <v>23.5</v>
       </c>
       <c r="D765">
         <v>700</v>
@@ -21064,7 +21064,7 @@
         <v>0.5</v>
       </c>
       <c r="C766">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D766">
         <v>700</v>
@@ -21090,7 +21090,7 @@
         <v>0.7</v>
       </c>
       <c r="C767">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="D767">
         <v>700</v>
@@ -21116,7 +21116,7 @@
         <v>0.8</v>
       </c>
       <c r="C768">
-        <v>25.5</v>
+        <v>18</v>
       </c>
       <c r="D768">
         <v>700</v>
@@ -21142,7 +21142,7 @@
         <v>0.9</v>
       </c>
       <c r="C769">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D769">
         <v>700</v>
@@ -21168,7 +21168,7 @@
         <v>0.5</v>
       </c>
       <c r="C770">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="D770">
         <v>500</v>
@@ -21194,7 +21194,7 @@
         <v>0.7</v>
       </c>
       <c r="C771">
-        <v>20.5</v>
+        <v>13.5</v>
       </c>
       <c r="D771">
         <v>500</v>
@@ -21220,7 +21220,7 @@
         <v>0.8</v>
       </c>
       <c r="C772">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D772">
         <v>500</v>
@@ -21246,7 +21246,7 @@
         <v>0.9</v>
       </c>
       <c r="C773">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D773">
         <v>500</v>
@@ -21272,7 +21272,7 @@
         <v>0.5</v>
       </c>
       <c r="C774">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D774">
         <v>600</v>
@@ -21298,7 +21298,7 @@
         <v>0.7</v>
       </c>
       <c r="C775">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D775">
         <v>600</v>
@@ -21324,7 +21324,7 @@
         <v>0.8</v>
       </c>
       <c r="C776">
-        <v>26.5</v>
+        <v>14.5</v>
       </c>
       <c r="D776">
         <v>600</v>
@@ -21350,7 +21350,7 @@
         <v>0.9</v>
       </c>
       <c r="C777">
-        <v>42</v>
+        <v>22.5</v>
       </c>
       <c r="D777">
         <v>600</v>
@@ -21376,7 +21376,7 @@
         <v>0.5</v>
       </c>
       <c r="C778">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D778">
         <v>800</v>
@@ -21402,7 +21402,7 @@
         <v>0.7</v>
       </c>
       <c r="C779">
-        <v>34.5</v>
+        <v>14.5</v>
       </c>
       <c r="D779">
         <v>800</v>
@@ -21428,7 +21428,7 @@
         <v>0.8</v>
       </c>
       <c r="C780">
-        <v>50.5</v>
+        <v>20</v>
       </c>
       <c r="D780">
         <v>800</v>
@@ -21454,7 +21454,7 @@
         <v>0.9</v>
       </c>
       <c r="C781">
-        <v>75</v>
+        <v>24.5</v>
       </c>
       <c r="D781">
         <v>800</v>
@@ -21480,7 +21480,7 @@
         <v>0.5</v>
       </c>
       <c r="C782">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D782">
         <v>800</v>
@@ -21506,7 +21506,7 @@
         <v>0.7</v>
       </c>
       <c r="C783">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D783">
         <v>800</v>
@@ -21532,7 +21532,7 @@
         <v>0.8</v>
       </c>
       <c r="C784">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D784">
         <v>800</v>
@@ -21558,7 +21558,7 @@
         <v>0.9</v>
       </c>
       <c r="C785">
-        <v>44.5</v>
+        <v>21</v>
       </c>
       <c r="D785">
         <v>800</v>
@@ -21584,7 +21584,7 @@
         <v>0.5</v>
       </c>
       <c r="C786">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D786">
         <v>600</v>
@@ -21610,7 +21610,7 @@
         <v>0.7</v>
       </c>
       <c r="C787">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D787">
         <v>600</v>
@@ -21636,7 +21636,7 @@
         <v>0.8</v>
       </c>
       <c r="C788">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D788">
         <v>600</v>
@@ -21662,7 +21662,7 @@
         <v>0.9</v>
       </c>
       <c r="C789">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D789">
         <v>600</v>
@@ -21688,7 +21688,7 @@
         <v>0.5</v>
       </c>
       <c r="C790">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D790">
         <v>500</v>
@@ -21714,7 +21714,7 @@
         <v>0.7</v>
       </c>
       <c r="C791">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="D791">
         <v>500</v>
@@ -21740,7 +21740,7 @@
         <v>0.8</v>
       </c>
       <c r="C792">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D792">
         <v>500</v>
@@ -21766,7 +21766,7 @@
         <v>0.9</v>
       </c>
       <c r="C793">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D793">
         <v>500</v>
@@ -21792,7 +21792,7 @@
         <v>0.5</v>
       </c>
       <c r="C794">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D794">
         <v>600</v>
@@ -21818,7 +21818,7 @@
         <v>0.7</v>
       </c>
       <c r="C795">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="D795">
         <v>600</v>
@@ -21844,7 +21844,7 @@
         <v>0.8</v>
       </c>
       <c r="C796">
-        <v>24.5</v>
+        <v>13</v>
       </c>
       <c r="D796">
         <v>600</v>
@@ -21870,7 +21870,7 @@
         <v>0.9</v>
       </c>
       <c r="C797">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D797">
         <v>600</v>
@@ -21896,7 +21896,7 @@
         <v>0.5</v>
       </c>
       <c r="C798">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="D798">
         <v>800</v>
@@ -21922,7 +21922,7 @@
         <v>0.7</v>
       </c>
       <c r="C799">
-        <v>29.5</v>
+        <v>14</v>
       </c>
       <c r="D799">
         <v>800</v>
@@ -21948,7 +21948,7 @@
         <v>0.8</v>
       </c>
       <c r="C800">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D800">
         <v>800</v>
@@ -21974,7 +21974,7 @@
         <v>0.9</v>
       </c>
       <c r="C801">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D801">
         <v>800</v>
@@ -22000,7 +22000,7 @@
         <v>0.5</v>
       </c>
       <c r="C802">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="D802">
         <v>600</v>
@@ -22026,7 +22026,7 @@
         <v>0.7</v>
       </c>
       <c r="C803">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="D803">
         <v>600</v>
@@ -22052,7 +22052,7 @@
         <v>0.8</v>
       </c>
       <c r="C804">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D804">
         <v>600</v>
@@ -22078,7 +22078,7 @@
         <v>0.9</v>
       </c>
       <c r="C805">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D805">
         <v>600</v>
@@ -22104,7 +22104,7 @@
         <v>0.5</v>
       </c>
       <c r="C806">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="D806">
         <v>500</v>
@@ -22130,7 +22130,7 @@
         <v>0.7</v>
       </c>
       <c r="C807">
-        <v>21.5</v>
+        <v>12</v>
       </c>
       <c r="D807">
         <v>500</v>
@@ -22156,7 +22156,7 @@
         <v>0.8</v>
       </c>
       <c r="C808">
-        <v>35.5</v>
+        <v>15</v>
       </c>
       <c r="D808">
         <v>500</v>
@@ -22182,7 +22182,7 @@
         <v>0.9</v>
       </c>
       <c r="C809">
-        <v>65</v>
+        <v>21.5</v>
       </c>
       <c r="D809">
         <v>500</v>
@@ -22208,7 +22208,7 @@
         <v>0.5</v>
       </c>
       <c r="C810">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="D810">
         <v>500</v>
@@ -22234,7 +22234,7 @@
         <v>0.7</v>
       </c>
       <c r="C811">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D811">
         <v>500</v>
@@ -22260,7 +22260,7 @@
         <v>0.8</v>
       </c>
       <c r="C812">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="D812">
         <v>500</v>
@@ -22286,7 +22286,7 @@
         <v>0.9</v>
       </c>
       <c r="C813">
-        <v>37.5</v>
+        <v>15.5</v>
       </c>
       <c r="D813">
         <v>500</v>
@@ -22312,7 +22312,7 @@
         <v>0.5</v>
       </c>
       <c r="C814">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D814">
         <v>800</v>
@@ -22338,7 +22338,7 @@
         <v>0.7</v>
       </c>
       <c r="C815">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D815">
         <v>800</v>
@@ -22364,7 +22364,7 @@
         <v>0.8</v>
       </c>
       <c r="C816">
-        <v>29.5</v>
+        <v>17</v>
       </c>
       <c r="D816">
         <v>800</v>
@@ -22390,7 +22390,7 @@
         <v>0.9</v>
       </c>
       <c r="C817">
-        <v>37.5</v>
+        <v>23</v>
       </c>
       <c r="D817">
         <v>800</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/Median_Pulse_Widths.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/Median_Pulse_Widths.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="60">
   <si>
     <t>File_Name</t>
   </si>
@@ -64,6 +64,9 @@
     <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS10.xlsx</t>
   </si>
   <si>
+    <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS5.xlsx</t>
+  </si>
+  <si>
     <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS2.xlsx</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS9.xlsx</t>
   </si>
   <si>
+    <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS9.xlsx</t>
+  </si>
+  <si>
     <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS2.xlsx</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS7.xlsx</t>
   </si>
   <si>
+    <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS7.xlsx</t>
+  </si>
+  <si>
     <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS1.xlsx</t>
   </si>
   <si>
@@ -151,66 +160,12 @@
     <t>10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS7.xlsx</t>
   </si>
   <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS3.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 500-POS-POS1.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS4.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS5.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS2.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS5.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS2.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS3.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 500-POS-POS6.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS4.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 500-POS-POS5.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 500-POS-POS4.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS1.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS6.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 500-POS-POS3.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS1.xlsx</t>
-  </si>
-  <si>
-    <t>6 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 500-POS-POS2.xlsx</t>
-  </si>
-  <si>
     <t>Tread</t>
   </si>
   <si>
     <t>10W</t>
   </si>
   <si>
-    <t>6W</t>
-  </si>
-  <si>
     <t>10W_Tread_4</t>
   </si>
   <si>
@@ -223,15 +178,15 @@
     <t>10W_Tread_10</t>
   </si>
   <si>
+    <t>10W_Tread_5</t>
+  </si>
+  <si>
     <t>10W_Tread_2</t>
   </si>
   <si>
     <t>10W_Tread_9</t>
   </si>
   <si>
-    <t>10W_Tread_5</t>
-  </si>
-  <si>
     <t>10W_Tread_7</t>
   </si>
   <si>
@@ -239,24 +194,6 @@
   </si>
   <si>
     <t>10W_Tread_6</t>
-  </si>
-  <si>
-    <t>6W_Tread_3</t>
-  </si>
-  <si>
-    <t>6W_Tread_1</t>
-  </si>
-  <si>
-    <t>6W_Tread_4</t>
-  </si>
-  <si>
-    <t>6W_Tread_5</t>
-  </si>
-  <si>
-    <t>6W_Tread_2</t>
-  </si>
-  <si>
-    <t>6W_Tread_6</t>
   </si>
 </sst>
 </file>
@@ -614,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,22 +591,22 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>900</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -680,22 +617,22 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>900</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -706,22 +643,22 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>900</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -732,22 +669,22 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>900</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -758,22 +695,22 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>800</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -784,22 +721,22 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>800</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -810,22 +747,22 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>800</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -836,22 +773,22 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>800</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -862,22 +799,22 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>600</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -888,22 +825,22 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>600</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -914,22 +851,22 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>600</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -940,22 +877,22 @@
         <v>0.9</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>600</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -966,22 +903,22 @@
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>800</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -992,22 +929,22 @@
         <v>0.7</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>800</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1018,22 +955,22 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>800</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1044,22 +981,22 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>800</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1070,22 +1007,22 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>900</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1096,22 +1033,22 @@
         <v>0.7</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>900</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1128,16 +1065,16 @@
         <v>900</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1148,22 +1085,22 @@
         <v>0.9</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>900</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1174,22 +1111,22 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>700</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1206,16 +1143,16 @@
         <v>700</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1226,22 +1163,22 @@
         <v>0.8</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>700</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1252,22 +1189,22 @@
         <v>0.9</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>700</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1278,22 +1215,22 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>600</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1304,22 +1241,22 @@
         <v>0.7</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>600</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1330,22 +1267,22 @@
         <v>0.8</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>600</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1356,22 +1293,22 @@
         <v>0.9</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>600</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1382,22 +1319,22 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>700</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1408,22 +1345,22 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>700</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1434,22 +1371,22 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>700</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1460,22 +1397,22 @@
         <v>0.9</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>700</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1489,19 +1426,19 @@
         <v>13</v>
       </c>
       <c r="D34">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1512,22 +1449,22 @@
         <v>0.7</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1541,19 +1478,19 @@
         <v>21</v>
       </c>
       <c r="D36">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1564,22 +1501,22 @@
         <v>0.9</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1590,22 +1527,22 @@
         <v>0.5</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1616,22 +1553,22 @@
         <v>0.7</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1642,22 +1579,22 @@
         <v>0.8</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1668,22 +1605,22 @@
         <v>0.9</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1694,22 +1631,22 @@
         <v>0.5</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F42">
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1720,22 +1657,22 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F43">
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1746,22 +1683,22 @@
         <v>0.8</v>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F44">
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1775,19 +1712,19 @@
         <v>25</v>
       </c>
       <c r="D45">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F45">
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1798,22 +1735,22 @@
         <v>0.5</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1824,22 +1761,22 @@
         <v>0.7</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1850,22 +1787,22 @@
         <v>0.8</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1876,22 +1813,22 @@
         <v>0.9</v>
       </c>
       <c r="C49">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1902,22 +1839,22 @@
         <v>0.5</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1928,22 +1865,22 @@
         <v>0.7</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D51">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1954,22 +1891,22 @@
         <v>0.8</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1980,22 +1917,22 @@
         <v>0.9</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2006,22 +1943,22 @@
         <v>0.5</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2032,22 +1969,22 @@
         <v>0.7</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E55" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2061,19 +1998,19 @@
         <v>24</v>
       </c>
       <c r="D56">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2084,22 +2021,22 @@
         <v>0.9</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2110,22 +2047,22 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2136,22 +2073,22 @@
         <v>0.7</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2162,22 +2099,22 @@
         <v>0.8</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2188,22 +2125,22 @@
         <v>0.9</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2214,22 +2151,22 @@
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2240,22 +2177,22 @@
         <v>0.7</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2266,22 +2203,22 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2292,22 +2229,22 @@
         <v>0.9</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2318,22 +2255,22 @@
         <v>0.5</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2344,22 +2281,22 @@
         <v>0.7</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2370,22 +2307,22 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2396,22 +2333,22 @@
         <v>0.9</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D69">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2422,22 +2359,22 @@
         <v>0.5</v>
       </c>
       <c r="C70">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D70">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2448,22 +2385,22 @@
         <v>0.7</v>
       </c>
       <c r="C71">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2474,22 +2411,22 @@
         <v>0.8</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E72" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2500,22 +2437,22 @@
         <v>0.9</v>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E73" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2526,22 +2463,22 @@
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2552,22 +2489,22 @@
         <v>0.7</v>
       </c>
       <c r="C75">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2578,22 +2515,22 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D76">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2604,22 +2541,22 @@
         <v>0.9</v>
       </c>
       <c r="C77">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E77" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H77" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2630,22 +2567,22 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D78">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2656,22 +2593,22 @@
         <v>0.7</v>
       </c>
       <c r="C79">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2682,22 +2619,22 @@
         <v>0.8</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E80" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2708,22 +2645,22 @@
         <v>0.9</v>
       </c>
       <c r="C81">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D81">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E81" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H81" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2734,22 +2671,22 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H82" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2760,22 +2697,22 @@
         <v>0.7</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E83" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G83" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H83" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2786,22 +2723,22 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D84">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H84" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2812,22 +2749,22 @@
         <v>0.9</v>
       </c>
       <c r="C85">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E85" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H85" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2838,22 +2775,22 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H86" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2864,22 +2801,22 @@
         <v>0.7</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D87">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E87" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H87" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2890,22 +2827,22 @@
         <v>0.8</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D88">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H88" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2916,22 +2853,22 @@
         <v>0.9</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E89" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H89" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2942,22 +2879,22 @@
         <v>0.5</v>
       </c>
       <c r="C90">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E90" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F90">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H90" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2968,22 +2905,22 @@
         <v>0.7</v>
       </c>
       <c r="C91">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D91">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E91" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H91" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2994,22 +2931,22 @@
         <v>0.8</v>
       </c>
       <c r="C92">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D92">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E92" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F92">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H92" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3020,22 +2957,22 @@
         <v>0.9</v>
       </c>
       <c r="C93">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D93">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E93" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H93" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3046,22 +2983,22 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E94" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H94" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3072,22 +3009,22 @@
         <v>0.7</v>
       </c>
       <c r="C95">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D95">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E95" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H95" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3098,22 +3035,22 @@
         <v>0.8</v>
       </c>
       <c r="C96">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D96">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E96" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F96">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H96" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3124,22 +3061,22 @@
         <v>0.9</v>
       </c>
       <c r="C97">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D97">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E97" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F97">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H97" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3150,22 +3087,22 @@
         <v>0.5</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D98">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E98" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G98" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H98" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3176,22 +3113,22 @@
         <v>0.7</v>
       </c>
       <c r="C99">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D99">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G99" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H99" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3202,22 +3139,22 @@
         <v>0.8</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D100">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E100" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H100" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3228,22 +3165,22 @@
         <v>0.9</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D101">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E101" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H101" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3254,22 +3191,22 @@
         <v>0.5</v>
       </c>
       <c r="C102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E102" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H102" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3280,22 +3217,22 @@
         <v>0.7</v>
       </c>
       <c r="C103">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E103" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H103" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3306,22 +3243,22 @@
         <v>0.8</v>
       </c>
       <c r="C104">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D104">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E104" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H104" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3332,22 +3269,22 @@
         <v>0.9</v>
       </c>
       <c r="C105">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D105">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E105" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F105">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H105" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3358,22 +3295,22 @@
         <v>0.5</v>
       </c>
       <c r="C106">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D106">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E106" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H106" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3384,22 +3321,22 @@
         <v>0.7</v>
       </c>
       <c r="C107">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D107">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E107" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H107" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3410,22 +3347,22 @@
         <v>0.8</v>
       </c>
       <c r="C108">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D108">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E108" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H108" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3436,22 +3373,22 @@
         <v>0.9</v>
       </c>
       <c r="C109">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D109">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E109" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F109">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H109" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3465,19 +3402,19 @@
         <v>13</v>
       </c>
       <c r="D110">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E110" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H110" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3488,22 +3425,22 @@
         <v>0.7</v>
       </c>
       <c r="C111">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D111">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E111" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H111" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3514,22 +3451,22 @@
         <v>0.8</v>
       </c>
       <c r="C112">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D112">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E112" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H112" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3540,22 +3477,22 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D113">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E113" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H113" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3566,22 +3503,22 @@
         <v>0.5</v>
       </c>
       <c r="C114">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H114" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3592,22 +3529,22 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D115">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E115" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3618,22 +3555,22 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D116">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E116" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H116" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3644,22 +3581,22 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D117">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E117" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H117" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3670,22 +3607,22 @@
         <v>0.5</v>
       </c>
       <c r="C118">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D118">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E118" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H118" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3696,22 +3633,22 @@
         <v>0.7</v>
       </c>
       <c r="C119">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D119">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E119" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H119" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3722,22 +3659,22 @@
         <v>0.8</v>
       </c>
       <c r="C120">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D120">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E120" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F120">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H120" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3748,22 +3685,22 @@
         <v>0.9</v>
       </c>
       <c r="C121">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D121">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E121" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H121" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3774,22 +3711,22 @@
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D122">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H122" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3803,19 +3740,19 @@
         <v>20</v>
       </c>
       <c r="D123">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E123" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H123" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3826,22 +3763,22 @@
         <v>0.8</v>
       </c>
       <c r="C124">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D124">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E124" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H124" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3855,19 +3792,19 @@
         <v>28</v>
       </c>
       <c r="D125">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E125" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H125" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3878,22 +3815,22 @@
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D126">
         <v>800</v>
       </c>
       <c r="E126" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G126" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H126" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3904,22 +3841,22 @@
         <v>0.7</v>
       </c>
       <c r="C127">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D127">
         <v>800</v>
       </c>
       <c r="E127" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G127" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H127" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3930,22 +3867,22 @@
         <v>0.8</v>
       </c>
       <c r="C128">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D128">
         <v>800</v>
       </c>
       <c r="E128" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G128" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H128" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3956,22 +3893,22 @@
         <v>0.9</v>
       </c>
       <c r="C129">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D129">
         <v>800</v>
       </c>
       <c r="E129" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G129" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H129" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3982,22 +3919,22 @@
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D130">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E130" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F130">
         <v>6</v>
       </c>
       <c r="G130" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H130" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4008,22 +3945,22 @@
         <v>0.7</v>
       </c>
       <c r="C131">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D131">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E131" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F131">
         <v>6</v>
       </c>
       <c r="G131" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H131" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4034,22 +3971,22 @@
         <v>0.8</v>
       </c>
       <c r="C132">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D132">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E132" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F132">
         <v>6</v>
       </c>
       <c r="G132" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H132" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4060,22 +3997,22 @@
         <v>0.9</v>
       </c>
       <c r="C133">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D133">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E133" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F133">
         <v>6</v>
       </c>
       <c r="G133" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H133" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4086,22 +4023,22 @@
         <v>0.5</v>
       </c>
       <c r="C134">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134">
         <v>600</v>
       </c>
       <c r="E134" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F134">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H134" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4112,22 +4049,22 @@
         <v>0.7</v>
       </c>
       <c r="C135">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D135">
         <v>600</v>
       </c>
       <c r="E135" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F135">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H135" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4138,22 +4075,22 @@
         <v>0.8</v>
       </c>
       <c r="C136">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D136">
         <v>600</v>
       </c>
       <c r="E136" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F136">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H136" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4164,22 +4101,22 @@
         <v>0.9</v>
       </c>
       <c r="C137">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137">
         <v>600</v>
       </c>
       <c r="E137" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H137" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4190,22 +4127,22 @@
         <v>0.5</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E138" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H138" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4216,22 +4153,22 @@
         <v>0.7</v>
       </c>
       <c r="C139">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D139">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E139" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H139" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4242,22 +4179,22 @@
         <v>0.8</v>
       </c>
       <c r="C140">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D140">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E140" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H140" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4271,19 +4208,19 @@
         <v>26</v>
       </c>
       <c r="D141">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E141" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F141">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H141" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4294,22 +4231,22 @@
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D142">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E142" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F142">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G142" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H142" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4320,22 +4257,22 @@
         <v>0.7</v>
       </c>
       <c r="C143">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D143">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E143" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G143" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H143" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4346,22 +4283,22 @@
         <v>0.8</v>
       </c>
       <c r="C144">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D144">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E144" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G144" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H144" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4372,22 +4309,22 @@
         <v>0.9</v>
       </c>
       <c r="C145">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D145">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E145" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G145" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H145" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4398,22 +4335,22 @@
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E146" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G146" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H146" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4424,22 +4361,22 @@
         <v>0.7</v>
       </c>
       <c r="C147">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D147">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E147" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F147">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G147" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H147" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4450,22 +4387,22 @@
         <v>0.8</v>
       </c>
       <c r="C148">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D148">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E148" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G148" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H148" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4476,22 +4413,22 @@
         <v>0.9</v>
       </c>
       <c r="C149">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D149">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E149" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F149">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G149" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H149" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4502,22 +4439,22 @@
         <v>0.5</v>
       </c>
       <c r="C150">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D150">
         <v>700</v>
       </c>
       <c r="E150" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H150" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4528,22 +4465,22 @@
         <v>0.7</v>
       </c>
       <c r="C151">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D151">
         <v>700</v>
       </c>
       <c r="E151" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H151" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4554,22 +4491,22 @@
         <v>0.8</v>
       </c>
       <c r="C152">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D152">
         <v>700</v>
       </c>
       <c r="E152" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H152" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4580,22 +4517,22 @@
         <v>0.9</v>
       </c>
       <c r="C153">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D153">
         <v>700</v>
       </c>
       <c r="E153" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H153" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4606,22 +4543,22 @@
         <v>0.5</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E154" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H154" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4632,22 +4569,22 @@
         <v>0.7</v>
       </c>
       <c r="C155">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D155">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E155" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H155" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4658,22 +4595,22 @@
         <v>0.8</v>
       </c>
       <c r="C156">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D156">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E156" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H156" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4684,22 +4621,22 @@
         <v>0.9</v>
       </c>
       <c r="C157">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D157">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E157" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H157" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4710,22 +4647,22 @@
         <v>0.5</v>
       </c>
       <c r="C158">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D158">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E158" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F158">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H158" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4736,22 +4673,22 @@
         <v>0.7</v>
       </c>
       <c r="C159">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D159">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E159" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F159">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H159" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4762,22 +4699,22 @@
         <v>0.8</v>
       </c>
       <c r="C160">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D160">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E160" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F160">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H160" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4788,1478 +4725,22 @@
         <v>0.9</v>
       </c>
       <c r="C161">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D161">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E161" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F161">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H161" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>48</v>
-      </c>
-      <c r="B162">
-        <v>0.5</v>
-      </c>
-      <c r="C162">
-        <v>12</v>
-      </c>
-      <c r="D162">
-        <v>600</v>
-      </c>
-      <c r="E162" t="s">
-        <v>62</v>
-      </c>
-      <c r="F162">
-        <v>5</v>
-      </c>
-      <c r="G162" t="s">
-        <v>64</v>
-      </c>
-      <c r="H162" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>48</v>
-      </c>
-      <c r="B163">
-        <v>0.7</v>
-      </c>
-      <c r="C163">
-        <v>16</v>
-      </c>
-      <c r="D163">
-        <v>600</v>
-      </c>
-      <c r="E163" t="s">
-        <v>62</v>
-      </c>
-      <c r="F163">
-        <v>5</v>
-      </c>
-      <c r="G163" t="s">
-        <v>64</v>
-      </c>
-      <c r="H163" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>48</v>
-      </c>
-      <c r="B164">
-        <v>0.8</v>
-      </c>
-      <c r="C164">
-        <v>18</v>
-      </c>
-      <c r="D164">
-        <v>600</v>
-      </c>
-      <c r="E164" t="s">
-        <v>62</v>
-      </c>
-      <c r="F164">
-        <v>5</v>
-      </c>
-      <c r="G164" t="s">
-        <v>64</v>
-      </c>
-      <c r="H164" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
-        <v>48</v>
-      </c>
-      <c r="B165">
-        <v>0.9</v>
-      </c>
-      <c r="C165">
-        <v>25</v>
-      </c>
-      <c r="D165">
-        <v>600</v>
-      </c>
-      <c r="E165" t="s">
-        <v>62</v>
-      </c>
-      <c r="F165">
-        <v>5</v>
-      </c>
-      <c r="G165" t="s">
-        <v>64</v>
-      </c>
-      <c r="H165" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
-        <v>49</v>
-      </c>
-      <c r="B166">
-        <v>0.5</v>
-      </c>
-      <c r="C166">
-        <v>14</v>
-      </c>
-      <c r="D166">
-        <v>700</v>
-      </c>
-      <c r="E166" t="s">
-        <v>62</v>
-      </c>
-      <c r="F166">
-        <v>2</v>
-      </c>
-      <c r="G166" t="s">
-        <v>64</v>
-      </c>
-      <c r="H166" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>49</v>
-      </c>
-      <c r="B167">
-        <v>0.7</v>
-      </c>
-      <c r="C167">
-        <v>19</v>
-      </c>
-      <c r="D167">
-        <v>700</v>
-      </c>
-      <c r="E167" t="s">
-        <v>62</v>
-      </c>
-      <c r="F167">
-        <v>2</v>
-      </c>
-      <c r="G167" t="s">
-        <v>64</v>
-      </c>
-      <c r="H167" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
-        <v>49</v>
-      </c>
-      <c r="B168">
-        <v>0.8</v>
-      </c>
-      <c r="C168">
-        <v>22</v>
-      </c>
-      <c r="D168">
-        <v>700</v>
-      </c>
-      <c r="E168" t="s">
-        <v>62</v>
-      </c>
-      <c r="F168">
-        <v>2</v>
-      </c>
-      <c r="G168" t="s">
-        <v>64</v>
-      </c>
-      <c r="H168" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>49</v>
-      </c>
-      <c r="B169">
-        <v>0.9</v>
-      </c>
-      <c r="C169">
-        <v>23</v>
-      </c>
-      <c r="D169">
-        <v>700</v>
-      </c>
-      <c r="E169" t="s">
-        <v>62</v>
-      </c>
-      <c r="F169">
-        <v>2</v>
-      </c>
-      <c r="G169" t="s">
-        <v>64</v>
-      </c>
-      <c r="H169" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170">
-        <v>0.5</v>
-      </c>
-      <c r="C170">
-        <v>12</v>
-      </c>
-      <c r="D170">
-        <v>700</v>
-      </c>
-      <c r="E170" t="s">
-        <v>62</v>
-      </c>
-      <c r="F170">
-        <v>5</v>
-      </c>
-      <c r="G170" t="s">
-        <v>64</v>
-      </c>
-      <c r="H170" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>50</v>
-      </c>
-      <c r="B171">
-        <v>0.7</v>
-      </c>
-      <c r="C171">
-        <v>15</v>
-      </c>
-      <c r="D171">
-        <v>700</v>
-      </c>
-      <c r="E171" t="s">
-        <v>62</v>
-      </c>
-      <c r="F171">
-        <v>5</v>
-      </c>
-      <c r="G171" t="s">
-        <v>64</v>
-      </c>
-      <c r="H171" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>50</v>
-      </c>
-      <c r="B172">
-        <v>0.8</v>
-      </c>
-      <c r="C172">
-        <v>18</v>
-      </c>
-      <c r="D172">
-        <v>700</v>
-      </c>
-      <c r="E172" t="s">
-        <v>62</v>
-      </c>
-      <c r="F172">
-        <v>5</v>
-      </c>
-      <c r="G172" t="s">
-        <v>64</v>
-      </c>
-      <c r="H172" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>50</v>
-      </c>
-      <c r="B173">
-        <v>0.9</v>
-      </c>
-      <c r="C173">
-        <v>24</v>
-      </c>
-      <c r="D173">
-        <v>700</v>
-      </c>
-      <c r="E173" t="s">
-        <v>62</v>
-      </c>
-      <c r="F173">
-        <v>5</v>
-      </c>
-      <c r="G173" t="s">
-        <v>64</v>
-      </c>
-      <c r="H173" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>51</v>
-      </c>
-      <c r="B174">
-        <v>0.5</v>
-      </c>
-      <c r="C174">
-        <v>14</v>
-      </c>
-      <c r="D174">
-        <v>600</v>
-      </c>
-      <c r="E174" t="s">
-        <v>62</v>
-      </c>
-      <c r="F174">
-        <v>2</v>
-      </c>
-      <c r="G174" t="s">
-        <v>64</v>
-      </c>
-      <c r="H174" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>51</v>
-      </c>
-      <c r="B175">
-        <v>0.7</v>
-      </c>
-      <c r="C175">
-        <v>18</v>
-      </c>
-      <c r="D175">
-        <v>600</v>
-      </c>
-      <c r="E175" t="s">
-        <v>62</v>
-      </c>
-      <c r="F175">
-        <v>2</v>
-      </c>
-      <c r="G175" t="s">
-        <v>64</v>
-      </c>
-      <c r="H175" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>51</v>
-      </c>
-      <c r="B176">
-        <v>0.8</v>
-      </c>
-      <c r="C176">
-        <v>21</v>
-      </c>
-      <c r="D176">
-        <v>600</v>
-      </c>
-      <c r="E176" t="s">
-        <v>62</v>
-      </c>
-      <c r="F176">
-        <v>2</v>
-      </c>
-      <c r="G176" t="s">
-        <v>64</v>
-      </c>
-      <c r="H176" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>51</v>
-      </c>
-      <c r="B177">
-        <v>0.9</v>
-      </c>
-      <c r="C177">
-        <v>26</v>
-      </c>
-      <c r="D177">
-        <v>600</v>
-      </c>
-      <c r="E177" t="s">
-        <v>62</v>
-      </c>
-      <c r="F177">
-        <v>2</v>
-      </c>
-      <c r="G177" t="s">
-        <v>64</v>
-      </c>
-      <c r="H177" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>52</v>
-      </c>
-      <c r="B178">
-        <v>0.5</v>
-      </c>
-      <c r="C178">
-        <v>14</v>
-      </c>
-      <c r="D178">
-        <v>600</v>
-      </c>
-      <c r="E178" t="s">
-        <v>62</v>
-      </c>
-      <c r="F178">
-        <v>3</v>
-      </c>
-      <c r="G178" t="s">
-        <v>64</v>
-      </c>
-      <c r="H178" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>52</v>
-      </c>
-      <c r="B179">
-        <v>0.7</v>
-      </c>
-      <c r="C179">
-        <v>19</v>
-      </c>
-      <c r="D179">
-        <v>600</v>
-      </c>
-      <c r="E179" t="s">
-        <v>62</v>
-      </c>
-      <c r="F179">
-        <v>3</v>
-      </c>
-      <c r="G179" t="s">
-        <v>64</v>
-      </c>
-      <c r="H179" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B180">
-        <v>0.8</v>
-      </c>
-      <c r="C180">
-        <v>23</v>
-      </c>
-      <c r="D180">
-        <v>600</v>
-      </c>
-      <c r="E180" t="s">
-        <v>62</v>
-      </c>
-      <c r="F180">
-        <v>3</v>
-      </c>
-      <c r="G180" t="s">
-        <v>64</v>
-      </c>
-      <c r="H180" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
-        <v>52</v>
-      </c>
-      <c r="B181">
-        <v>0.9</v>
-      </c>
-      <c r="C181">
-        <v>25</v>
-      </c>
-      <c r="D181">
-        <v>600</v>
-      </c>
-      <c r="E181" t="s">
-        <v>62</v>
-      </c>
-      <c r="F181">
-        <v>3</v>
-      </c>
-      <c r="G181" t="s">
-        <v>64</v>
-      </c>
-      <c r="H181" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>53</v>
-      </c>
-      <c r="B182">
-        <v>0.5</v>
-      </c>
-      <c r="C182">
-        <v>9</v>
-      </c>
-      <c r="D182">
-        <v>500</v>
-      </c>
-      <c r="E182" t="s">
-        <v>62</v>
-      </c>
-      <c r="F182">
-        <v>6</v>
-      </c>
-      <c r="G182" t="s">
-        <v>64</v>
-      </c>
-      <c r="H182" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>53</v>
-      </c>
-      <c r="B183">
-        <v>0.7</v>
-      </c>
-      <c r="C183">
-        <v>12</v>
-      </c>
-      <c r="D183">
-        <v>500</v>
-      </c>
-      <c r="E183" t="s">
-        <v>62</v>
-      </c>
-      <c r="F183">
-        <v>6</v>
-      </c>
-      <c r="G183" t="s">
-        <v>64</v>
-      </c>
-      <c r="H183" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B184">
-        <v>0.8</v>
-      </c>
-      <c r="C184">
-        <v>14</v>
-      </c>
-      <c r="D184">
-        <v>500</v>
-      </c>
-      <c r="E184" t="s">
-        <v>62</v>
-      </c>
-      <c r="F184">
-        <v>6</v>
-      </c>
-      <c r="G184" t="s">
-        <v>64</v>
-      </c>
-      <c r="H184" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>53</v>
-      </c>
-      <c r="B185">
-        <v>0.9</v>
-      </c>
-      <c r="C185">
-        <v>18</v>
-      </c>
-      <c r="D185">
-        <v>500</v>
-      </c>
-      <c r="E185" t="s">
-        <v>62</v>
-      </c>
-      <c r="F185">
-        <v>6</v>
-      </c>
-      <c r="G185" t="s">
-        <v>64</v>
-      </c>
-      <c r="H185" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>54</v>
-      </c>
-      <c r="B186">
-        <v>0.5</v>
-      </c>
-      <c r="C186">
-        <v>16</v>
-      </c>
-      <c r="D186">
-        <v>700</v>
-      </c>
-      <c r="E186" t="s">
-        <v>62</v>
-      </c>
-      <c r="F186">
-        <v>4</v>
-      </c>
-      <c r="G186" t="s">
-        <v>64</v>
-      </c>
-      <c r="H186" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>54</v>
-      </c>
-      <c r="B187">
-        <v>0.7</v>
-      </c>
-      <c r="C187">
-        <v>19</v>
-      </c>
-      <c r="D187">
-        <v>700</v>
-      </c>
-      <c r="E187" t="s">
-        <v>62</v>
-      </c>
-      <c r="F187">
-        <v>4</v>
-      </c>
-      <c r="G187" t="s">
-        <v>64</v>
-      </c>
-      <c r="H187" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
-        <v>54</v>
-      </c>
-      <c r="B188">
-        <v>0.8</v>
-      </c>
-      <c r="C188">
-        <v>23</v>
-      </c>
-      <c r="D188">
-        <v>700</v>
-      </c>
-      <c r="E188" t="s">
-        <v>62</v>
-      </c>
-      <c r="F188">
-        <v>4</v>
-      </c>
-      <c r="G188" t="s">
-        <v>64</v>
-      </c>
-      <c r="H188" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>54</v>
-      </c>
-      <c r="B189">
-        <v>0.9</v>
-      </c>
-      <c r="C189">
-        <v>25</v>
-      </c>
-      <c r="D189">
-        <v>700</v>
-      </c>
-      <c r="E189" t="s">
-        <v>62</v>
-      </c>
-      <c r="F189">
-        <v>4</v>
-      </c>
-      <c r="G189" t="s">
-        <v>64</v>
-      </c>
-      <c r="H189" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" t="s">
-        <v>55</v>
-      </c>
-      <c r="B190">
-        <v>0.5</v>
-      </c>
-      <c r="C190">
-        <v>12</v>
-      </c>
-      <c r="D190">
-        <v>500</v>
-      </c>
-      <c r="E190" t="s">
-        <v>62</v>
-      </c>
-      <c r="F190">
-        <v>5</v>
-      </c>
-      <c r="G190" t="s">
-        <v>64</v>
-      </c>
-      <c r="H190" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" t="s">
-        <v>55</v>
-      </c>
-      <c r="B191">
-        <v>0.7</v>
-      </c>
-      <c r="C191">
-        <v>16</v>
-      </c>
-      <c r="D191">
-        <v>500</v>
-      </c>
-      <c r="E191" t="s">
-        <v>62</v>
-      </c>
-      <c r="F191">
-        <v>5</v>
-      </c>
-      <c r="G191" t="s">
-        <v>64</v>
-      </c>
-      <c r="H191" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>55</v>
-      </c>
-      <c r="B192">
-        <v>0.8</v>
-      </c>
-      <c r="C192">
-        <v>19</v>
-      </c>
-      <c r="D192">
-        <v>500</v>
-      </c>
-      <c r="E192" t="s">
-        <v>62</v>
-      </c>
-      <c r="F192">
-        <v>5</v>
-      </c>
-      <c r="G192" t="s">
-        <v>64</v>
-      </c>
-      <c r="H192" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>55</v>
-      </c>
-      <c r="B193">
-        <v>0.9</v>
-      </c>
-      <c r="C193">
-        <v>24</v>
-      </c>
-      <c r="D193">
-        <v>500</v>
-      </c>
-      <c r="E193" t="s">
-        <v>62</v>
-      </c>
-      <c r="F193">
-        <v>5</v>
-      </c>
-      <c r="G193" t="s">
-        <v>64</v>
-      </c>
-      <c r="H193" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" t="s">
-        <v>56</v>
-      </c>
-      <c r="B194">
-        <v>0.5</v>
-      </c>
-      <c r="C194">
-        <v>15</v>
-      </c>
-      <c r="D194">
-        <v>500</v>
-      </c>
-      <c r="E194" t="s">
-        <v>62</v>
-      </c>
-      <c r="F194">
-        <v>4</v>
-      </c>
-      <c r="G194" t="s">
-        <v>64</v>
-      </c>
-      <c r="H194" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" t="s">
-        <v>56</v>
-      </c>
-      <c r="B195">
-        <v>0.7</v>
-      </c>
-      <c r="C195">
-        <v>20</v>
-      </c>
-      <c r="D195">
-        <v>500</v>
-      </c>
-      <c r="E195" t="s">
-        <v>62</v>
-      </c>
-      <c r="F195">
-        <v>4</v>
-      </c>
-      <c r="G195" t="s">
-        <v>64</v>
-      </c>
-      <c r="H195" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>56</v>
-      </c>
-      <c r="B196">
-        <v>0.8</v>
-      </c>
-      <c r="C196">
-        <v>22</v>
-      </c>
-      <c r="D196">
-        <v>500</v>
-      </c>
-      <c r="E196" t="s">
-        <v>62</v>
-      </c>
-      <c r="F196">
-        <v>4</v>
-      </c>
-      <c r="G196" t="s">
-        <v>64</v>
-      </c>
-      <c r="H196" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" t="s">
-        <v>56</v>
-      </c>
-      <c r="B197">
-        <v>0.9</v>
-      </c>
-      <c r="C197">
-        <v>24</v>
-      </c>
-      <c r="D197">
-        <v>500</v>
-      </c>
-      <c r="E197" t="s">
-        <v>62</v>
-      </c>
-      <c r="F197">
-        <v>4</v>
-      </c>
-      <c r="G197" t="s">
-        <v>64</v>
-      </c>
-      <c r="H197" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" t="s">
         <v>57</v>
-      </c>
-      <c r="B198">
-        <v>0.5</v>
-      </c>
-      <c r="C198">
-        <v>19</v>
-      </c>
-      <c r="D198">
-        <v>600</v>
-      </c>
-      <c r="E198" t="s">
-        <v>62</v>
-      </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198" t="s">
-        <v>64</v>
-      </c>
-      <c r="H198" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>57</v>
-      </c>
-      <c r="B199">
-        <v>0.7</v>
-      </c>
-      <c r="C199">
-        <v>23</v>
-      </c>
-      <c r="D199">
-        <v>600</v>
-      </c>
-      <c r="E199" t="s">
-        <v>62</v>
-      </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="G199" t="s">
-        <v>64</v>
-      </c>
-      <c r="H199" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" t="s">
-        <v>57</v>
-      </c>
-      <c r="B200">
-        <v>0.8</v>
-      </c>
-      <c r="C200">
-        <v>24</v>
-      </c>
-      <c r="D200">
-        <v>600</v>
-      </c>
-      <c r="E200" t="s">
-        <v>62</v>
-      </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="G200" t="s">
-        <v>64</v>
-      </c>
-      <c r="H200" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>57</v>
-      </c>
-      <c r="B201">
-        <v>0.9</v>
-      </c>
-      <c r="C201">
-        <v>25</v>
-      </c>
-      <c r="D201">
-        <v>600</v>
-      </c>
-      <c r="E201" t="s">
-        <v>62</v>
-      </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="G201" t="s">
-        <v>64</v>
-      </c>
-      <c r="H201" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>58</v>
-      </c>
-      <c r="B202">
-        <v>0.5</v>
-      </c>
-      <c r="C202">
-        <v>12</v>
-      </c>
-      <c r="D202">
-        <v>600</v>
-      </c>
-      <c r="E202" t="s">
-        <v>62</v>
-      </c>
-      <c r="F202">
-        <v>6</v>
-      </c>
-      <c r="G202" t="s">
-        <v>64</v>
-      </c>
-      <c r="H202" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>58</v>
-      </c>
-      <c r="B203">
-        <v>0.7</v>
-      </c>
-      <c r="C203">
-        <v>13</v>
-      </c>
-      <c r="D203">
-        <v>600</v>
-      </c>
-      <c r="E203" t="s">
-        <v>62</v>
-      </c>
-      <c r="F203">
-        <v>6</v>
-      </c>
-      <c r="G203" t="s">
-        <v>64</v>
-      </c>
-      <c r="H203" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>58</v>
-      </c>
-      <c r="B204">
-        <v>0.8</v>
-      </c>
-      <c r="C204">
-        <v>17</v>
-      </c>
-      <c r="D204">
-        <v>600</v>
-      </c>
-      <c r="E204" t="s">
-        <v>62</v>
-      </c>
-      <c r="F204">
-        <v>6</v>
-      </c>
-      <c r="G204" t="s">
-        <v>64</v>
-      </c>
-      <c r="H204" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>58</v>
-      </c>
-      <c r="B205">
-        <v>0.9</v>
-      </c>
-      <c r="C205">
-        <v>22</v>
-      </c>
-      <c r="D205">
-        <v>600</v>
-      </c>
-      <c r="E205" t="s">
-        <v>62</v>
-      </c>
-      <c r="F205">
-        <v>6</v>
-      </c>
-      <c r="G205" t="s">
-        <v>64</v>
-      </c>
-      <c r="H205" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
-        <v>59</v>
-      </c>
-      <c r="B206">
-        <v>0.5</v>
-      </c>
-      <c r="C206">
-        <v>13</v>
-      </c>
-      <c r="D206">
-        <v>500</v>
-      </c>
-      <c r="E206" t="s">
-        <v>62</v>
-      </c>
-      <c r="F206">
-        <v>3</v>
-      </c>
-      <c r="G206" t="s">
-        <v>64</v>
-      </c>
-      <c r="H206" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" t="s">
-        <v>59</v>
-      </c>
-      <c r="B207">
-        <v>0.7</v>
-      </c>
-      <c r="C207">
-        <v>18</v>
-      </c>
-      <c r="D207">
-        <v>500</v>
-      </c>
-      <c r="E207" t="s">
-        <v>62</v>
-      </c>
-      <c r="F207">
-        <v>3</v>
-      </c>
-      <c r="G207" t="s">
-        <v>64</v>
-      </c>
-      <c r="H207" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
-        <v>59</v>
-      </c>
-      <c r="B208">
-        <v>0.8</v>
-      </c>
-      <c r="C208">
-        <v>23</v>
-      </c>
-      <c r="D208">
-        <v>500</v>
-      </c>
-      <c r="E208" t="s">
-        <v>62</v>
-      </c>
-      <c r="F208">
-        <v>3</v>
-      </c>
-      <c r="G208" t="s">
-        <v>64</v>
-      </c>
-      <c r="H208" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>59</v>
-      </c>
-      <c r="B209">
-        <v>0.9</v>
-      </c>
-      <c r="C209">
-        <v>26</v>
-      </c>
-      <c r="D209">
-        <v>500</v>
-      </c>
-      <c r="E209" t="s">
-        <v>62</v>
-      </c>
-      <c r="F209">
-        <v>3</v>
-      </c>
-      <c r="G209" t="s">
-        <v>64</v>
-      </c>
-      <c r="H209" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>60</v>
-      </c>
-      <c r="B210">
-        <v>0.5</v>
-      </c>
-      <c r="C210">
-        <v>18</v>
-      </c>
-      <c r="D210">
-        <v>700</v>
-      </c>
-      <c r="E210" t="s">
-        <v>62</v>
-      </c>
-      <c r="F210">
-        <v>1</v>
-      </c>
-      <c r="G210" t="s">
-        <v>64</v>
-      </c>
-      <c r="H210" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
-        <v>60</v>
-      </c>
-      <c r="B211">
-        <v>0.7</v>
-      </c>
-      <c r="C211">
-        <v>22</v>
-      </c>
-      <c r="D211">
-        <v>700</v>
-      </c>
-      <c r="E211" t="s">
-        <v>62</v>
-      </c>
-      <c r="F211">
-        <v>1</v>
-      </c>
-      <c r="G211" t="s">
-        <v>64</v>
-      </c>
-      <c r="H211" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>60</v>
-      </c>
-      <c r="B212">
-        <v>0.8</v>
-      </c>
-      <c r="C212">
-        <v>23</v>
-      </c>
-      <c r="D212">
-        <v>700</v>
-      </c>
-      <c r="E212" t="s">
-        <v>62</v>
-      </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
-      <c r="G212" t="s">
-        <v>64</v>
-      </c>
-      <c r="H212" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
-        <v>60</v>
-      </c>
-      <c r="B213">
-        <v>0.9</v>
-      </c>
-      <c r="C213">
-        <v>25</v>
-      </c>
-      <c r="D213">
-        <v>700</v>
-      </c>
-      <c r="E213" t="s">
-        <v>62</v>
-      </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="G213" t="s">
-        <v>64</v>
-      </c>
-      <c r="H213" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" t="s">
-        <v>61</v>
-      </c>
-      <c r="B214">
-        <v>0.5</v>
-      </c>
-      <c r="C214">
-        <v>10</v>
-      </c>
-      <c r="D214">
-        <v>500</v>
-      </c>
-      <c r="E214" t="s">
-        <v>62</v>
-      </c>
-      <c r="F214">
-        <v>2</v>
-      </c>
-      <c r="G214" t="s">
-        <v>64</v>
-      </c>
-      <c r="H214" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
-        <v>61</v>
-      </c>
-      <c r="B215">
-        <v>0.7</v>
-      </c>
-      <c r="C215">
-        <v>14</v>
-      </c>
-      <c r="D215">
-        <v>500</v>
-      </c>
-      <c r="E215" t="s">
-        <v>62</v>
-      </c>
-      <c r="F215">
-        <v>2</v>
-      </c>
-      <c r="G215" t="s">
-        <v>64</v>
-      </c>
-      <c r="H215" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" t="s">
-        <v>61</v>
-      </c>
-      <c r="B216">
-        <v>0.8</v>
-      </c>
-      <c r="C216">
-        <v>19</v>
-      </c>
-      <c r="D216">
-        <v>500</v>
-      </c>
-      <c r="E216" t="s">
-        <v>62</v>
-      </c>
-      <c r="F216">
-        <v>2</v>
-      </c>
-      <c r="G216" t="s">
-        <v>64</v>
-      </c>
-      <c r="H216" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
-        <v>61</v>
-      </c>
-      <c r="B217">
-        <v>0.9</v>
-      </c>
-      <c r="C217">
-        <v>26</v>
-      </c>
-      <c r="D217">
-        <v>500</v>
-      </c>
-      <c r="E217" t="s">
-        <v>62</v>
-      </c>
-      <c r="F217">
-        <v>2</v>
-      </c>
-      <c r="G217" t="s">
-        <v>64</v>
-      </c>
-      <c r="H217" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
